--- a/일정표_안정인.xlsx
+++ b/일정표_안정인.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\anji0\Desktop\3학년 2학기\넷겜플\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5D67A1-5256-46BA-92A8-8394691B2ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A8BF6-854F-4168-85E5-0E6F8E0DB57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,35 +47,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어의 클라이언트 식별을 위한 함수 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerSetting() 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로비 멀티스레드 동기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클라이언트 - 로그인, 로비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>통신을 위한 클라이언트 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인게임 입장을 위한 함수 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerWait() 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initialize() 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,19 +115,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 정보 로비로 전달 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서버 플레이어 구조체 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sever send() -&gt; Client recv()</t>
+    <t>Client recv() -&gt; Server send()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Client recv() -&gt; Server send()</t>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Clitent</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="한컴 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> send() -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <rFont val="한컴 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> recv()</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>인게임 입장을 위한 함수 제작</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(타이머 정보 전송)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>로비 멀티스레드 동기화</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(플레이어 정보 띄우기)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Initialize() 제작</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(플레이어 팀 나누기)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="한컴 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플레이어의 클라이언트 식별을 위한 함수 제작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="한컴 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인 정보 로비로 전달 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="한컴 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PlayerWait() 제작</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="한컴 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>PlayerSetting() 제작</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +313,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -264,8 +414,37 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="한컴 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +510,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="87">
     <border>
@@ -1554,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,6 +2096,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="12" borderId="1" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2269,10 +2460,10 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="28.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2283,9 +2474,9 @@
     <col min="80" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" ht="20.25" customHeight="1" thickBot="1">
       <c r="A1" s="111" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -2362,7 +2553,7 @@
       <c r="BV1" s="7"/>
       <c r="BW1" s="4"/>
     </row>
-    <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1">
       <c r="A2" s="116" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +2636,7 @@
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
     </row>
-    <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="117"/>
       <c r="B3" s="118"/>
       <c r="C3" s="75">
@@ -2577,12 +2768,12 @@
       <c r="BQ3" s="5"/>
       <c r="BR3" s="5"/>
     </row>
-    <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="64"/>
@@ -2656,9 +2847,9 @@
       <c r="BT4" s="5"/>
       <c r="BU4" s="5"/>
     </row>
-    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
-        <v>27</v>
+    <row r="5" spans="1:77" ht="15" customHeight="1">
+      <c r="A5" s="119" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="63"/>
@@ -2733,9 +2924,9 @@
       <c r="BT5" s="5"/>
       <c r="BU5" s="5"/>
     </row>
-    <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:77" ht="15" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="21"/>
@@ -2810,9 +3001,9 @@
       <c r="BT6" s="5"/>
       <c r="BU6" s="5"/>
     </row>
-    <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:77" ht="15" customHeight="1">
       <c r="A7" s="62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="21"/>
@@ -2887,12 +3078,12 @@
       <c r="BT7" s="5"/>
       <c r="BU7" s="5"/>
     </row>
-    <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:77" ht="15" customHeight="1">
       <c r="A8" s="76" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="72"/>
       <c r="D8" s="66"/>
@@ -2966,9 +3157,9 @@
       <c r="BT8" s="5"/>
       <c r="BU8" s="5"/>
     </row>
-    <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="62" t="s">
-        <v>29</v>
+    <row r="9" spans="1:77" ht="15" customHeight="1">
+      <c r="A9" s="120" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="21"/>
@@ -3043,9 +3234,9 @@
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
     </row>
-    <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:77" ht="15" customHeight="1">
       <c r="A10" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="21"/>
@@ -3120,9 +3311,9 @@
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
     </row>
-    <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:77" ht="15" customHeight="1">
       <c r="A11" s="16" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="21"/>
@@ -3197,9 +3388,9 @@
       <c r="BT11" s="5"/>
       <c r="BU11" s="5"/>
     </row>
-    <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="62" t="s">
-        <v>12</v>
+    <row r="12" spans="1:77" ht="15" customHeight="1">
+      <c r="A12" s="120" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="27"/>
@@ -3274,9 +3465,9 @@
       <c r="BT12" s="5"/>
       <c r="BU12" s="5"/>
     </row>
-    <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="62" t="s">
-        <v>7</v>
+    <row r="13" spans="1:77" ht="15" customHeight="1">
+      <c r="A13" s="120" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="12"/>
@@ -3355,9 +3546,9 @@
       <c r="BX13" s="5"/>
       <c r="BY13" s="5"/>
     </row>
-    <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="62" t="s">
-        <v>30</v>
+    <row r="14" spans="1:77" ht="15" customHeight="1">
+      <c r="A14" s="120" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="21"/>
@@ -3436,12 +3627,12 @@
       <c r="BX14" s="5"/>
       <c r="BY14" s="5"/>
     </row>
-    <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:77" ht="15" customHeight="1">
       <c r="A15" s="44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="65"/>
@@ -3519,9 +3710,9 @@
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
     </row>
-    <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>9</v>
+    <row r="16" spans="1:77" ht="15" customHeight="1">
+      <c r="A16" s="119" t="s">
+        <v>6</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="21"/>
@@ -3600,9 +3791,9 @@
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
     </row>
-    <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="62" t="s">
-        <v>31</v>
+    <row r="17" spans="1:77" ht="15" customHeight="1">
+      <c r="A17" s="120" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="21"/>
@@ -3681,9 +3872,9 @@
       <c r="BX17" s="5"/>
       <c r="BY17" s="5"/>
     </row>
-    <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
+    <row r="18" spans="1:77" ht="15" customHeight="1">
+      <c r="A18" s="119" t="s">
+        <v>25</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="21"/>
@@ -3762,7 +3953,7 @@
       <c r="BX18" s="5"/>
       <c r="BY18" s="5"/>
     </row>
-    <row r="19" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:77" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="34"/>
       <c r="B19" s="45"/>
       <c r="C19" s="49"/>
@@ -3841,12 +4032,12 @@
       <c r="BX19" s="5"/>
       <c r="BY19" s="5"/>
     </row>
-    <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:77" ht="15" customHeight="1">
       <c r="A20" s="77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="70"/>
@@ -3924,9 +4115,9 @@
       <c r="BX20" s="5"/>
       <c r="BY20" s="5"/>
     </row>
-    <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:77" ht="15" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="21"/>
@@ -4005,9 +4196,9 @@
       <c r="BX21" s="5"/>
       <c r="BY21" s="5"/>
     </row>
-    <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:77" ht="15" customHeight="1">
       <c r="A22" s="37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B22" s="36"/>
       <c r="C22" s="21"/>
@@ -4086,12 +4277,12 @@
       <c r="BX22" s="5"/>
       <c r="BY22" s="5"/>
     </row>
-    <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:77" ht="15" customHeight="1">
       <c r="A23" s="78" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="65"/>
@@ -4169,9 +4360,9 @@
       <c r="BX23" s="5"/>
       <c r="BY23" s="5"/>
     </row>
-    <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:77" ht="15" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B24" s="36"/>
       <c r="C24" s="21"/>
@@ -4250,9 +4441,9 @@
       <c r="BX24" s="5"/>
       <c r="BY24" s="5"/>
     </row>
-    <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:77" ht="15" customHeight="1">
       <c r="A25" s="37" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B25" s="36"/>
       <c r="C25" s="21"/>
@@ -4331,9 +4522,9 @@
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
     </row>
-    <row r="26" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:77" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="91" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B26" s="92"/>
       <c r="C26" s="93"/>
@@ -4412,10 +4603,10 @@
       <c r="BX26" s="5"/>
       <c r="BY26" s="5"/>
     </row>
-    <row r="27" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:77" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="101"/>
       <c r="B27" s="109" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C27" s="102"/>
       <c r="D27" s="103"/>
@@ -4493,7 +4684,7 @@
       <c r="BX27" s="5"/>
       <c r="BY27" s="5"/>
     </row>
-    <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:77" ht="15" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4540,7 +4731,7 @@
       <c r="AR28" s="5"/>
       <c r="AS28" s="5"/>
     </row>
-    <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:77" ht="15" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4587,7 +4778,7 @@
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
     </row>
-    <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:77" ht="15" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4634,7 +4825,7 @@
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
     </row>
-    <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:77" ht="15" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4681,7 +4872,7 @@
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
     </row>
-    <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:77" ht="15" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4728,7 +4919,7 @@
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
     </row>
-    <row r="33" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:77" ht="15" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4775,7 +4966,7 @@
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
     </row>
-    <row r="34" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:77" ht="15" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -4822,7 +5013,7 @@
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
     </row>
-    <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:77" ht="15" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4869,7 +5060,7 @@
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
     </row>
-    <row r="36" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:77" ht="15" customHeight="1">
       <c r="B36" s="1"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -4915,7 +5106,7 @@
       <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
     </row>
-    <row r="37" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:77" ht="15" customHeight="1">
       <c r="B37" s="1"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -4961,7 +5152,7 @@
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
     </row>
-    <row r="38" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:77" ht="15" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -5011,7 +5202,7 @@
       <c r="BX38" s="5"/>
       <c r="BY38" s="5"/>
     </row>
-    <row r="39" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:77" ht="15" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -5061,7 +5252,7 @@
       <c r="BX39" s="5"/>
       <c r="BY39" s="5"/>
     </row>
-    <row r="40" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:77" ht="15" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5109,7 +5300,7 @@
       <c r="BX40" s="5"/>
       <c r="BY40" s="5"/>
     </row>
-    <row r="41" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:77" ht="15" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -5157,56 +5348,56 @@
       <c r="BX41" s="5"/>
       <c r="BY41" s="5"/>
     </row>
-    <row r="42" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:77" ht="13.5" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:77" ht="13.5" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:77" ht="13.5" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:77" ht="13.5" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:77" ht="13.5" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:77" ht="13.5" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:77" ht="13.5" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:43" ht="13.5" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5217,7 +5408,7 @@
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
     </row>
-    <row r="50" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:43" ht="13.5" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5228,7 +5419,7 @@
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
     </row>
-    <row r="51" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:43" ht="13.5" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5266,7 +5457,7 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
     </row>
-    <row r="52" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:43" ht="13.5" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -5304,7 +5495,7 @@
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:43">
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -5342,7 +5533,7 @@
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:43">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -5380,7 +5571,7 @@
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:43">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -5425,7 +5616,7 @@
       <c r="AP55" s="5"/>
       <c r="AQ55" s="5"/>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:43">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -5466,7 +5657,7 @@
       <c r="AP56" s="5"/>
       <c r="AQ56" s="5"/>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:43">
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -5507,7 +5698,7 @@
       <c r="AP57" s="5"/>
       <c r="AQ57" s="5"/>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:43">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -5520,7 +5711,7 @@
       <c r="AP58" s="5"/>
       <c r="AQ58" s="5"/>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:43">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5533,7 +5724,7 @@
       <c r="AP59" s="5"/>
       <c r="AQ59" s="5"/>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:43">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -5546,7 +5737,7 @@
       <c r="AP60" s="5"/>
       <c r="AQ60" s="5"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:43">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5559,37 +5750,37 @@
       <c r="AP61" s="5"/>
       <c r="AQ61" s="5"/>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:43">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:43">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:43">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:82">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:82">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:82">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5599,7 +5790,7 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
     </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:82">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5609,7 +5800,7 @@
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:82">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -5646,7 +5837,7 @@
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
     </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:82">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -5679,7 +5870,7 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
     </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:82">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -5712,10 +5903,10 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:82">
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:82">
       <c r="C73" s="3"/>
       <c r="AK73" s="5"/>
       <c r="AL73" s="5"/>
@@ -5726,7 +5917,7 @@
       <c r="AQ73" s="5"/>
       <c r="AR73" s="5"/>
     </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:82">
       <c r="C74" s="3"/>
       <c r="AK74" s="5"/>
       <c r="AL74" s="5"/>
@@ -5737,7 +5928,7 @@
       <c r="AQ74" s="5"/>
       <c r="AR74" s="5"/>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:82">
       <c r="C75" s="3"/>
       <c r="AK75" s="5"/>
       <c r="AL75" s="5"/>
@@ -5748,7 +5939,7 @@
       <c r="AQ75" s="5"/>
       <c r="AR75" s="5"/>
     </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:82">
       <c r="C76" s="3"/>
       <c r="AL76" s="5"/>
       <c r="AM76" s="5"/>
@@ -5796,7 +5987,7 @@
       <c r="CC76" s="5"/>
       <c r="CD76" s="5"/>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:82">
       <c r="C77" s="3"/>
       <c r="AL77" s="5"/>
       <c r="AM77" s="5"/>
@@ -5844,7 +6035,7 @@
       <c r="CC77" s="5"/>
       <c r="CD77" s="5"/>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:82">
       <c r="C78" s="3"/>
       <c r="AL78" s="5"/>
       <c r="AM78" s="5"/>
@@ -5892,7 +6083,7 @@
       <c r="CC78" s="5"/>
       <c r="CD78" s="5"/>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:82">
       <c r="C79" s="3"/>
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
@@ -5940,7 +6131,7 @@
       <c r="CC79" s="5"/>
       <c r="CD79" s="5"/>
     </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:82">
       <c r="C80" s="3"/>
       <c r="AL80" s="5"/>
       <c r="AM80" s="5"/>
@@ -5988,7 +6179,7 @@
       <c r="CC80" s="5"/>
       <c r="CD80" s="5"/>
     </row>
-    <row r="81" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:82">
       <c r="C81" s="3"/>
       <c r="AL81" s="5"/>
       <c r="AM81" s="5"/>
@@ -6036,7 +6227,7 @@
       <c r="CC81" s="5"/>
       <c r="CD81" s="5"/>
     </row>
-    <row r="82" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:82">
       <c r="C82" s="3"/>
       <c r="AL82" s="5"/>
       <c r="AM82" s="5"/>
@@ -6084,7 +6275,7 @@
       <c r="CC82" s="5"/>
       <c r="CD82" s="5"/>
     </row>
-    <row r="83" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:82">
       <c r="C83" s="3"/>
       <c r="AL83" s="5"/>
       <c r="AM83" s="5"/>
@@ -6132,7 +6323,7 @@
       <c r="CC83" s="5"/>
       <c r="CD83" s="5"/>
     </row>
-    <row r="84" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:82">
       <c r="C84" s="3"/>
       <c r="AL84" s="5"/>
       <c r="AM84" s="5"/>
@@ -6180,7 +6371,7 @@
       <c r="CC84" s="5"/>
       <c r="CD84" s="5"/>
     </row>
-    <row r="85" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:82">
       <c r="C85" s="3"/>
       <c r="AL85" s="5"/>
       <c r="AM85" s="5"/>
@@ -6228,7 +6419,7 @@
       <c r="CC85" s="5"/>
       <c r="CD85" s="5"/>
     </row>
-    <row r="86" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:82">
       <c r="C86" s="3"/>
       <c r="AL86" s="5"/>
       <c r="AM86" s="5"/>
@@ -6276,7 +6467,7 @@
       <c r="CC86" s="5"/>
       <c r="CD86" s="5"/>
     </row>
-    <row r="87" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:82">
       <c r="C87" s="3"/>
       <c r="AL87" s="5"/>
       <c r="AM87" s="5"/>
@@ -6324,7 +6515,7 @@
       <c r="CC87" s="5"/>
       <c r="CD87" s="5"/>
     </row>
-    <row r="88" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:82">
       <c r="C88" s="3"/>
       <c r="AL88" s="5"/>
       <c r="AM88" s="5"/>
@@ -6372,7 +6563,7 @@
       <c r="CC88" s="5"/>
       <c r="CD88" s="5"/>
     </row>
-    <row r="89" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:82">
       <c r="C89" s="3"/>
       <c r="AL89" s="5"/>
       <c r="AM89" s="5"/>
@@ -6420,7 +6611,7 @@
       <c r="CC89" s="5"/>
       <c r="CD89" s="5"/>
     </row>
-    <row r="90" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:82">
       <c r="C90" s="3"/>
       <c r="AL90" s="5"/>
       <c r="AM90" s="5"/>
@@ -6468,7 +6659,7 @@
       <c r="CC90" s="5"/>
       <c r="CD90" s="5"/>
     </row>
-    <row r="91" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:82">
       <c r="C91" s="3"/>
       <c r="AL91" s="5"/>
       <c r="AM91" s="5"/>
@@ -6516,7 +6707,7 @@
       <c r="CC91" s="5"/>
       <c r="CD91" s="5"/>
     </row>
-    <row r="92" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:82">
       <c r="C92" s="3"/>
       <c r="AL92" s="5"/>
       <c r="AM92" s="5"/>
@@ -6564,7 +6755,7 @@
       <c r="CC92" s="5"/>
       <c r="CD92" s="5"/>
     </row>
-    <row r="93" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:82">
       <c r="C93" s="3"/>
       <c r="AL93" s="5"/>
       <c r="AM93" s="5"/>
@@ -6612,7 +6803,7 @@
       <c r="CC93" s="5"/>
       <c r="CD93" s="5"/>
     </row>
-    <row r="94" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:82">
       <c r="C94" s="3"/>
       <c r="AL94" s="5"/>
       <c r="AM94" s="5"/>
@@ -6660,7 +6851,7 @@
       <c r="CC94" s="5"/>
       <c r="CD94" s="5"/>
     </row>
-    <row r="95" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:82">
       <c r="C95" s="3"/>
       <c r="AL95" s="5"/>
       <c r="AM95" s="5"/>
@@ -6708,7 +6899,7 @@
       <c r="CC95" s="5"/>
       <c r="CD95" s="5"/>
     </row>
-    <row r="96" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:82">
       <c r="C96" s="3"/>
       <c r="AL96" s="5"/>
       <c r="AM96" s="5"/>
@@ -6756,7 +6947,7 @@
       <c r="CC96" s="5"/>
       <c r="CD96" s="5"/>
     </row>
-    <row r="97" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:82">
       <c r="C97" s="3"/>
       <c r="AL97" s="5"/>
       <c r="AM97" s="5"/>
@@ -6804,7 +6995,7 @@
       <c r="CC97" s="5"/>
       <c r="CD97" s="5"/>
     </row>
-    <row r="98" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:82">
       <c r="C98" s="3"/>
       <c r="AL98" s="5"/>
       <c r="AM98" s="5"/>
@@ -6852,7 +7043,7 @@
       <c r="CC98" s="5"/>
       <c r="CD98" s="5"/>
     </row>
-    <row r="99" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:82">
       <c r="C99" s="3"/>
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
@@ -6900,7 +7091,7 @@
       <c r="CC99" s="5"/>
       <c r="CD99" s="5"/>
     </row>
-    <row r="100" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:82">
       <c r="C100" s="3"/>
       <c r="AL100" s="5"/>
       <c r="AM100" s="5"/>
@@ -6948,7 +7139,7 @@
       <c r="CC100" s="5"/>
       <c r="CD100" s="5"/>
     </row>
-    <row r="101" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:82">
       <c r="C101" s="3"/>
       <c r="AL101" s="5"/>
       <c r="AM101" s="5"/>
@@ -6996,7 +7187,7 @@
       <c r="CC101" s="5"/>
       <c r="CD101" s="5"/>
     </row>
-    <row r="102" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:82">
       <c r="C102" s="3"/>
       <c r="AL102" s="5"/>
       <c r="AM102" s="5"/>
@@ -7044,7 +7235,7 @@
       <c r="CC102" s="5"/>
       <c r="CD102" s="5"/>
     </row>
-    <row r="103" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:82">
       <c r="C103" s="3"/>
       <c r="AL103" s="5"/>
       <c r="AM103" s="5"/>
@@ -7092,7 +7283,7 @@
       <c r="CC103" s="5"/>
       <c r="CD103" s="5"/>
     </row>
-    <row r="104" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:82">
       <c r="C104" s="3"/>
       <c r="AL104" s="5"/>
       <c r="AM104" s="5"/>
@@ -7140,7 +7331,7 @@
       <c r="CC104" s="5"/>
       <c r="CD104" s="5"/>
     </row>
-    <row r="105" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:82">
       <c r="C105" s="3"/>
       <c r="AL105" s="5"/>
       <c r="AM105" s="5"/>
@@ -7188,7 +7379,7 @@
       <c r="CC105" s="5"/>
       <c r="CD105" s="5"/>
     </row>
-    <row r="106" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:82">
       <c r="C106" s="3"/>
       <c r="AL106" s="5"/>
       <c r="AM106" s="5"/>
@@ -7236,7 +7427,7 @@
       <c r="CC106" s="5"/>
       <c r="CD106" s="5"/>
     </row>
-    <row r="107" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:82">
       <c r="C107" s="3"/>
       <c r="AL107" s="5"/>
       <c r="AM107" s="5"/>
@@ -7284,7 +7475,7 @@
       <c r="CC107" s="5"/>
       <c r="CD107" s="5"/>
     </row>
-    <row r="108" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:82">
       <c r="C108" s="3"/>
       <c r="AL108" s="5"/>
       <c r="AM108" s="5"/>
@@ -7332,7 +7523,7 @@
       <c r="CC108" s="5"/>
       <c r="CD108" s="5"/>
     </row>
-    <row r="109" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:82">
       <c r="C109" s="3"/>
       <c r="AL109" s="5"/>
       <c r="AM109" s="5"/>
@@ -7380,7 +7571,7 @@
       <c r="CC109" s="5"/>
       <c r="CD109" s="5"/>
     </row>
-    <row r="110" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:82">
       <c r="C110" s="3"/>
       <c r="AL110" s="5"/>
       <c r="AM110" s="5"/>
@@ -7428,7 +7619,7 @@
       <c r="CC110" s="5"/>
       <c r="CD110" s="5"/>
     </row>
-    <row r="111" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:82">
       <c r="C111" s="3"/>
       <c r="AL111" s="5"/>
       <c r="AM111" s="5"/>
@@ -7476,7 +7667,7 @@
       <c r="CC111" s="5"/>
       <c r="CD111" s="5"/>
     </row>
-    <row r="112" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:82">
       <c r="C112" s="3"/>
       <c r="AL112" s="5"/>
       <c r="AM112" s="5"/>
@@ -7524,7 +7715,7 @@
       <c r="CC112" s="5"/>
       <c r="CD112" s="5"/>
     </row>
-    <row r="113" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:82">
       <c r="C113" s="3"/>
       <c r="AL113" s="5"/>
       <c r="AM113" s="5"/>
@@ -7572,7 +7763,7 @@
       <c r="CC113" s="5"/>
       <c r="CD113" s="5"/>
     </row>
-    <row r="114" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:82">
       <c r="C114" s="3"/>
       <c r="AL114" s="5"/>
       <c r="AM114" s="5"/>
@@ -7620,7 +7811,7 @@
       <c r="CC114" s="5"/>
       <c r="CD114" s="5"/>
     </row>
-    <row r="115" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:82">
       <c r="C115" s="3"/>
       <c r="AL115" s="5"/>
       <c r="AM115" s="5"/>
@@ -7668,7 +7859,7 @@
       <c r="CC115" s="5"/>
       <c r="CD115" s="5"/>
     </row>
-    <row r="116" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:82">
       <c r="C116" s="3"/>
       <c r="AL116" s="5"/>
       <c r="AM116" s="5"/>
@@ -7716,7 +7907,7 @@
       <c r="CC116" s="5"/>
       <c r="CD116" s="5"/>
     </row>
-    <row r="117" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:82">
       <c r="C117" s="3"/>
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
@@ -7764,7 +7955,7 @@
       <c r="CC117" s="5"/>
       <c r="CD117" s="5"/>
     </row>
-    <row r="118" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:82">
       <c r="C118" s="3"/>
       <c r="AL118" s="5"/>
       <c r="AM118" s="5"/>
@@ -7812,7 +8003,7 @@
       <c r="CC118" s="5"/>
       <c r="CD118" s="5"/>
     </row>
-    <row r="119" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:82">
       <c r="C119" s="3"/>
       <c r="AL119" s="5"/>
       <c r="AM119" s="5"/>
@@ -7860,7 +8051,7 @@
       <c r="CC119" s="5"/>
       <c r="CD119" s="5"/>
     </row>
-    <row r="120" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:82">
       <c r="C120" s="3"/>
       <c r="AL120" s="5"/>
       <c r="AM120" s="5"/>
@@ -7908,7 +8099,7 @@
       <c r="CC120" s="5"/>
       <c r="CD120" s="5"/>
     </row>
-    <row r="121" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:82">
       <c r="C121" s="3"/>
       <c r="AL121" s="5"/>
       <c r="AM121" s="5"/>
@@ -7956,7 +8147,7 @@
       <c r="CC121" s="5"/>
       <c r="CD121" s="5"/>
     </row>
-    <row r="122" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:82">
       <c r="C122" s="3"/>
       <c r="AL122" s="5"/>
       <c r="AM122" s="5"/>
@@ -8004,7 +8195,7 @@
       <c r="CC122" s="5"/>
       <c r="CD122" s="5"/>
     </row>
-    <row r="123" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:82">
       <c r="C123" s="3"/>
       <c r="AL123" s="5"/>
       <c r="AM123" s="5"/>
@@ -8052,7 +8243,7 @@
       <c r="CC123" s="5"/>
       <c r="CD123" s="5"/>
     </row>
-    <row r="124" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:82">
       <c r="C124" s="3"/>
       <c r="AL124" s="5"/>
       <c r="AM124" s="5"/>
@@ -8100,7 +8291,7 @@
       <c r="CC124" s="5"/>
       <c r="CD124" s="5"/>
     </row>
-    <row r="125" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:82">
       <c r="C125" s="3"/>
       <c r="AL125" s="5"/>
       <c r="AM125" s="5"/>
@@ -8148,7 +8339,7 @@
       <c r="CC125" s="5"/>
       <c r="CD125" s="5"/>
     </row>
-    <row r="126" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:82">
       <c r="C126" s="3"/>
       <c r="AL126" s="5"/>
       <c r="AM126" s="5"/>
@@ -8196,7 +8387,7 @@
       <c r="CC126" s="5"/>
       <c r="CD126" s="5"/>
     </row>
-    <row r="127" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:82">
       <c r="C127" s="3"/>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
@@ -8244,7 +8435,7 @@
       <c r="CC127" s="5"/>
       <c r="CD127" s="5"/>
     </row>
-    <row r="128" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:82">
       <c r="C128" s="3"/>
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
@@ -8292,7 +8483,7 @@
       <c r="CC128" s="5"/>
       <c r="CD128" s="5"/>
     </row>
-    <row r="129" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:82">
       <c r="C129" s="3"/>
       <c r="AL129" s="5"/>
       <c r="AM129" s="5"/>
@@ -8340,7 +8531,7 @@
       <c r="CC129" s="5"/>
       <c r="CD129" s="5"/>
     </row>
-    <row r="130" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:82">
       <c r="C130" s="3"/>
       <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
@@ -8388,7 +8579,7 @@
       <c r="CC130" s="5"/>
       <c r="CD130" s="5"/>
     </row>
-    <row r="131" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:82">
       <c r="C131" s="3"/>
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
@@ -8436,7 +8627,7 @@
       <c r="CC131" s="5"/>
       <c r="CD131" s="5"/>
     </row>
-    <row r="132" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:82">
       <c r="C132" s="3"/>
       <c r="AL132" s="5"/>
       <c r="AM132" s="5"/>
@@ -8484,7 +8675,7 @@
       <c r="CC132" s="5"/>
       <c r="CD132" s="5"/>
     </row>
-    <row r="133" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:82">
       <c r="C133" s="3"/>
       <c r="AL133" s="5"/>
       <c r="AM133" s="5"/>
@@ -8532,7 +8723,7 @@
       <c r="CC133" s="5"/>
       <c r="CD133" s="5"/>
     </row>
-    <row r="134" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:82">
       <c r="C134" s="3"/>
       <c r="AL134" s="5"/>
       <c r="AM134" s="5"/>
@@ -8580,7 +8771,7 @@
       <c r="CC134" s="5"/>
       <c r="CD134" s="5"/>
     </row>
-    <row r="135" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:82">
       <c r="C135" s="3"/>
       <c r="AL135" s="5"/>
       <c r="AM135" s="5"/>
@@ -8628,7 +8819,7 @@
       <c r="CC135" s="5"/>
       <c r="CD135" s="5"/>
     </row>
-    <row r="136" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:82">
       <c r="C136" s="3"/>
       <c r="AL136" s="5"/>
       <c r="AM136" s="5"/>
@@ -8676,7 +8867,7 @@
       <c r="CC136" s="5"/>
       <c r="CD136" s="5"/>
     </row>
-    <row r="137" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:82">
       <c r="C137" s="3"/>
       <c r="AL137" s="5"/>
       <c r="AM137" s="5"/>
@@ -8724,7 +8915,7 @@
       <c r="CC137" s="5"/>
       <c r="CD137" s="5"/>
     </row>
-    <row r="138" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:82">
       <c r="C138" s="3"/>
       <c r="AL138" s="5"/>
       <c r="AM138" s="5"/>
@@ -8772,7 +8963,7 @@
       <c r="CC138" s="5"/>
       <c r="CD138" s="5"/>
     </row>
-    <row r="139" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="139" spans="3:82">
       <c r="C139" s="3"/>
       <c r="AL139" s="5"/>
       <c r="AM139" s="5"/>
@@ -8820,7 +9011,7 @@
       <c r="CC139" s="5"/>
       <c r="CD139" s="5"/>
     </row>
-    <row r="140" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="140" spans="3:82">
       <c r="C140" s="3"/>
       <c r="AL140" s="5"/>
       <c r="AM140" s="5"/>
@@ -8868,7 +9059,7 @@
       <c r="CC140" s="5"/>
       <c r="CD140" s="5"/>
     </row>
-    <row r="141" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:82">
       <c r="C141" s="3"/>
       <c r="AL141" s="5"/>
       <c r="AM141" s="5"/>
@@ -8916,7 +9107,7 @@
       <c r="CC141" s="5"/>
       <c r="CD141" s="5"/>
     </row>
-    <row r="142" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="142" spans="3:82">
       <c r="C142" s="3"/>
       <c r="AL142" s="5"/>
       <c r="AM142" s="5"/>
@@ -8964,7 +9155,7 @@
       <c r="CC142" s="5"/>
       <c r="CD142" s="5"/>
     </row>
-    <row r="143" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:82">
       <c r="C143" s="3"/>
       <c r="AL143" s="5"/>
       <c r="AM143" s="5"/>
@@ -9012,7 +9203,7 @@
       <c r="CC143" s="5"/>
       <c r="CD143" s="5"/>
     </row>
-    <row r="144" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="144" spans="3:82">
       <c r="C144" s="3"/>
       <c r="AL144" s="5"/>
       <c r="AM144" s="5"/>
@@ -9060,7 +9251,7 @@
       <c r="CC144" s="5"/>
       <c r="CD144" s="5"/>
     </row>
-    <row r="145" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:82">
       <c r="C145" s="3"/>
       <c r="AL145" s="5"/>
       <c r="AM145" s="5"/>
@@ -9108,7 +9299,7 @@
       <c r="CC145" s="5"/>
       <c r="CD145" s="5"/>
     </row>
-    <row r="146" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="146" spans="3:82">
       <c r="C146" s="3"/>
       <c r="AL146" s="5"/>
       <c r="AM146" s="5"/>
@@ -9156,7 +9347,7 @@
       <c r="CC146" s="5"/>
       <c r="CD146" s="5"/>
     </row>
-    <row r="147" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="147" spans="3:82">
       <c r="C147" s="3"/>
       <c r="AL147" s="5"/>
       <c r="AM147" s="5"/>
@@ -9204,7 +9395,7 @@
       <c r="CC147" s="5"/>
       <c r="CD147" s="5"/>
     </row>
-    <row r="148" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:82">
       <c r="C148" s="3"/>
       <c r="AL148" s="5"/>
       <c r="AM148" s="5"/>
@@ -9252,7 +9443,7 @@
       <c r="CC148" s="5"/>
       <c r="CD148" s="5"/>
     </row>
-    <row r="149" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:82">
       <c r="C149" s="3"/>
       <c r="AL149" s="5"/>
       <c r="AM149" s="5"/>
@@ -9300,7 +9491,7 @@
       <c r="CC149" s="5"/>
       <c r="CD149" s="5"/>
     </row>
-    <row r="150" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="150" spans="3:82">
       <c r="C150" s="3"/>
       <c r="AL150" s="5"/>
       <c r="AM150" s="5"/>
@@ -9348,7 +9539,7 @@
       <c r="CC150" s="5"/>
       <c r="CD150" s="5"/>
     </row>
-    <row r="151" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="151" spans="3:82">
       <c r="C151" s="3"/>
       <c r="AL151" s="5"/>
       <c r="AM151" s="5"/>
@@ -9396,7 +9587,7 @@
       <c r="CC151" s="5"/>
       <c r="CD151" s="5"/>
     </row>
-    <row r="152" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="152" spans="3:82">
       <c r="C152" s="3"/>
       <c r="AL152" s="5"/>
       <c r="AM152" s="5"/>
@@ -9444,7 +9635,7 @@
       <c r="CC152" s="5"/>
       <c r="CD152" s="5"/>
     </row>
-    <row r="153" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="153" spans="3:82">
       <c r="C153" s="3"/>
       <c r="AL153" s="5"/>
       <c r="AM153" s="5"/>
@@ -9492,7 +9683,7 @@
       <c r="CC153" s="5"/>
       <c r="CD153" s="5"/>
     </row>
-    <row r="154" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="154" spans="3:82">
       <c r="C154" s="3"/>
       <c r="AL154" s="5"/>
       <c r="AM154" s="5"/>
@@ -9540,7 +9731,7 @@
       <c r="CC154" s="5"/>
       <c r="CD154" s="5"/>
     </row>
-    <row r="155" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="155" spans="3:82">
       <c r="C155" s="3"/>
       <c r="AL155" s="5"/>
       <c r="AM155" s="5"/>
@@ -9588,7 +9779,7 @@
       <c r="CC155" s="5"/>
       <c r="CD155" s="5"/>
     </row>
-    <row r="156" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="156" spans="3:82">
       <c r="C156" s="3"/>
       <c r="AL156" s="5"/>
       <c r="AM156" s="5"/>
@@ -9636,7 +9827,7 @@
       <c r="CC156" s="5"/>
       <c r="CD156" s="5"/>
     </row>
-    <row r="157" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="157" spans="3:82">
       <c r="C157" s="3"/>
       <c r="AL157" s="5"/>
       <c r="AM157" s="5"/>
@@ -9684,7 +9875,7 @@
       <c r="CC157" s="5"/>
       <c r="CD157" s="5"/>
     </row>
-    <row r="158" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="158" spans="3:82">
       <c r="C158" s="3"/>
       <c r="AL158" s="5"/>
       <c r="AM158" s="5"/>
@@ -9732,7 +9923,7 @@
       <c r="CC158" s="5"/>
       <c r="CD158" s="5"/>
     </row>
-    <row r="159" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="159" spans="3:82">
       <c r="C159" s="3"/>
       <c r="AL159" s="5"/>
       <c r="AM159" s="5"/>
@@ -9780,7 +9971,7 @@
       <c r="CC159" s="5"/>
       <c r="CD159" s="5"/>
     </row>
-    <row r="160" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="160" spans="3:82">
       <c r="C160" s="3"/>
       <c r="AL160" s="5"/>
       <c r="AM160" s="5"/>
@@ -9828,7 +10019,7 @@
       <c r="CC160" s="5"/>
       <c r="CD160" s="5"/>
     </row>
-    <row r="161" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="161" spans="3:82">
       <c r="C161" s="3"/>
       <c r="AL161" s="5"/>
       <c r="AM161" s="5"/>
@@ -9876,7 +10067,7 @@
       <c r="CC161" s="5"/>
       <c r="CD161" s="5"/>
     </row>
-    <row r="162" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="162" spans="3:82">
       <c r="C162" s="3"/>
       <c r="AL162" s="5"/>
       <c r="AM162" s="5"/>
@@ -9924,7 +10115,7 @@
       <c r="CC162" s="5"/>
       <c r="CD162" s="5"/>
     </row>
-    <row r="163" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="163" spans="3:82">
       <c r="C163" s="3"/>
       <c r="AL163" s="5"/>
       <c r="AM163" s="5"/>
@@ -9972,7 +10163,7 @@
       <c r="CC163" s="5"/>
       <c r="CD163" s="5"/>
     </row>
-    <row r="164" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="164" spans="3:82">
       <c r="C164" s="3"/>
       <c r="AL164" s="5"/>
       <c r="AM164" s="5"/>
@@ -10020,7 +10211,7 @@
       <c r="CC164" s="5"/>
       <c r="CD164" s="5"/>
     </row>
-    <row r="165" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="165" spans="3:82">
       <c r="C165" s="3"/>
       <c r="AL165" s="5"/>
       <c r="AM165" s="5"/>
@@ -10068,7 +10259,7 @@
       <c r="CC165" s="5"/>
       <c r="CD165" s="5"/>
     </row>
-    <row r="166" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="166" spans="3:82">
       <c r="C166" s="3"/>
       <c r="AL166" s="5"/>
       <c r="AM166" s="5"/>
@@ -10116,7 +10307,7 @@
       <c r="CC166" s="5"/>
       <c r="CD166" s="5"/>
     </row>
-    <row r="167" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="167" spans="3:82">
       <c r="C167" s="3"/>
       <c r="AL167" s="5"/>
       <c r="AM167" s="5"/>
@@ -10164,7 +10355,7 @@
       <c r="CC167" s="5"/>
       <c r="CD167" s="5"/>
     </row>
-    <row r="168" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="168" spans="3:82">
       <c r="C168" s="3"/>
       <c r="AL168" s="5"/>
       <c r="AM168" s="5"/>
@@ -10212,7 +10403,7 @@
       <c r="CC168" s="5"/>
       <c r="CD168" s="5"/>
     </row>
-    <row r="169" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="169" spans="3:82">
       <c r="C169" s="3"/>
       <c r="AL169" s="5"/>
       <c r="AM169" s="5"/>
@@ -10260,7 +10451,7 @@
       <c r="CC169" s="5"/>
       <c r="CD169" s="5"/>
     </row>
-    <row r="170" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="170" spans="3:82">
       <c r="C170" s="3"/>
       <c r="AL170" s="5"/>
       <c r="AM170" s="5"/>
@@ -10308,7 +10499,7 @@
       <c r="CC170" s="5"/>
       <c r="CD170" s="5"/>
     </row>
-    <row r="171" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="171" spans="3:82">
       <c r="C171" s="3"/>
       <c r="AL171" s="5"/>
       <c r="AM171" s="5"/>
@@ -10356,7 +10547,7 @@
       <c r="CC171" s="5"/>
       <c r="CD171" s="5"/>
     </row>
-    <row r="172" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="172" spans="3:82">
       <c r="C172" s="3"/>
       <c r="AL172" s="5"/>
       <c r="AM172" s="5"/>
@@ -10404,7 +10595,7 @@
       <c r="CC172" s="5"/>
       <c r="CD172" s="5"/>
     </row>
-    <row r="173" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="173" spans="3:82">
       <c r="C173" s="3"/>
       <c r="AL173" s="5"/>
       <c r="AM173" s="5"/>
@@ -10452,7 +10643,7 @@
       <c r="CC173" s="5"/>
       <c r="CD173" s="5"/>
     </row>
-    <row r="174" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="174" spans="3:82">
       <c r="C174" s="3"/>
       <c r="AL174" s="5"/>
       <c r="AM174" s="5"/>
@@ -10500,7 +10691,7 @@
       <c r="CC174" s="5"/>
       <c r="CD174" s="5"/>
     </row>
-    <row r="175" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="175" spans="3:82">
       <c r="C175" s="3"/>
       <c r="AL175" s="5"/>
       <c r="AM175" s="5"/>
@@ -10548,7 +10739,7 @@
       <c r="CC175" s="5"/>
       <c r="CD175" s="5"/>
     </row>
-    <row r="176" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="176" spans="3:82">
       <c r="C176" s="3"/>
       <c r="AL176" s="5"/>
       <c r="AM176" s="5"/>
@@ -10596,7 +10787,7 @@
       <c r="CC176" s="5"/>
       <c r="CD176" s="5"/>
     </row>
-    <row r="177" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="177" spans="3:82">
       <c r="C177" s="3"/>
       <c r="AL177" s="5"/>
       <c r="AM177" s="5"/>
@@ -10644,7 +10835,7 @@
       <c r="CC177" s="5"/>
       <c r="CD177" s="5"/>
     </row>
-    <row r="178" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="178" spans="3:82">
       <c r="C178" s="3"/>
       <c r="AL178" s="5"/>
       <c r="AM178" s="5"/>
@@ -10692,7 +10883,7 @@
       <c r="CC178" s="5"/>
       <c r="CD178" s="5"/>
     </row>
-    <row r="179" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="179" spans="3:82">
       <c r="C179" s="3"/>
       <c r="AL179" s="5"/>
       <c r="AM179" s="5"/>
@@ -10740,7 +10931,7 @@
       <c r="CC179" s="5"/>
       <c r="CD179" s="5"/>
     </row>
-    <row r="180" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="180" spans="3:82">
       <c r="C180" s="3"/>
       <c r="AL180" s="5"/>
       <c r="AM180" s="5"/>
@@ -10788,7 +10979,7 @@
       <c r="CC180" s="5"/>
       <c r="CD180" s="5"/>
     </row>
-    <row r="181" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:82">
       <c r="C181" s="3"/>
       <c r="AL181" s="5"/>
       <c r="AM181" s="5"/>
@@ -10836,7 +11027,7 @@
       <c r="CC181" s="5"/>
       <c r="CD181" s="5"/>
     </row>
-    <row r="182" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="182" spans="3:82">
       <c r="C182" s="3"/>
       <c r="AL182" s="5"/>
       <c r="AM182" s="5"/>
@@ -10884,7 +11075,7 @@
       <c r="CC182" s="5"/>
       <c r="CD182" s="5"/>
     </row>
-    <row r="183" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="183" spans="3:82">
       <c r="C183" s="3"/>
       <c r="AL183" s="5"/>
       <c r="AM183" s="5"/>
@@ -10932,7 +11123,7 @@
       <c r="CC183" s="5"/>
       <c r="CD183" s="5"/>
     </row>
-    <row r="184" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="184" spans="3:82">
       <c r="C184" s="3"/>
       <c r="AL184" s="5"/>
       <c r="AM184" s="5"/>
@@ -10980,7 +11171,7 @@
       <c r="CC184" s="5"/>
       <c r="CD184" s="5"/>
     </row>
-    <row r="185" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="185" spans="3:82">
       <c r="C185" s="3"/>
       <c r="AL185" s="5"/>
       <c r="AM185" s="5"/>
@@ -11028,7 +11219,7 @@
       <c r="CC185" s="5"/>
       <c r="CD185" s="5"/>
     </row>
-    <row r="186" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="186" spans="3:82">
       <c r="C186" s="3"/>
       <c r="AL186" s="5"/>
       <c r="AM186" s="5"/>
@@ -11076,7 +11267,7 @@
       <c r="CC186" s="5"/>
       <c r="CD186" s="5"/>
     </row>
-    <row r="187" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="187" spans="3:82">
       <c r="C187" s="3"/>
       <c r="AL187" s="5"/>
       <c r="AM187" s="5"/>
@@ -11124,7 +11315,7 @@
       <c r="CC187" s="5"/>
       <c r="CD187" s="5"/>
     </row>
-    <row r="188" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="188" spans="3:82">
       <c r="C188" s="3"/>
       <c r="AL188" s="5"/>
       <c r="AM188" s="5"/>
@@ -11172,7 +11363,7 @@
       <c r="CC188" s="5"/>
       <c r="CD188" s="5"/>
     </row>
-    <row r="189" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="189" spans="3:82">
       <c r="C189" s="3"/>
       <c r="AL189" s="5"/>
       <c r="AM189" s="5"/>
@@ -11220,7 +11411,7 @@
       <c r="CC189" s="5"/>
       <c r="CD189" s="5"/>
     </row>
-    <row r="190" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="190" spans="3:82">
       <c r="C190" s="3"/>
       <c r="AL190" s="5"/>
       <c r="AM190" s="5"/>
@@ -11268,7 +11459,7 @@
       <c r="CC190" s="5"/>
       <c r="CD190" s="5"/>
     </row>
-    <row r="191" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="191" spans="3:82">
       <c r="C191" s="3"/>
       <c r="AL191" s="5"/>
       <c r="AM191" s="5"/>
@@ -11316,7 +11507,7 @@
       <c r="CC191" s="5"/>
       <c r="CD191" s="5"/>
     </row>
-    <row r="192" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="192" spans="3:82">
       <c r="C192" s="3"/>
       <c r="AL192" s="5"/>
       <c r="AM192" s="5"/>
@@ -11364,7 +11555,7 @@
       <c r="CC192" s="5"/>
       <c r="CD192" s="5"/>
     </row>
-    <row r="193" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:82">
       <c r="C193" s="3"/>
       <c r="AL193" s="5"/>
       <c r="AM193" s="5"/>
@@ -11412,7 +11603,7 @@
       <c r="CC193" s="5"/>
       <c r="CD193" s="5"/>
     </row>
-    <row r="194" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="194" spans="3:82">
       <c r="C194" s="3"/>
       <c r="AL194" s="5"/>
       <c r="AM194" s="5"/>
@@ -11460,7 +11651,7 @@
       <c r="CC194" s="5"/>
       <c r="CD194" s="5"/>
     </row>
-    <row r="195" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:82">
       <c r="C195" s="3"/>
       <c r="AL195" s="5"/>
       <c r="AM195" s="5"/>
@@ -11508,7 +11699,7 @@
       <c r="CC195" s="5"/>
       <c r="CD195" s="5"/>
     </row>
-    <row r="196" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:82">
       <c r="C196" s="3"/>
       <c r="AL196" s="5"/>
       <c r="AM196" s="5"/>
@@ -11556,7 +11747,7 @@
       <c r="CC196" s="5"/>
       <c r="CD196" s="5"/>
     </row>
-    <row r="197" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:82">
       <c r="C197" s="3"/>
       <c r="AL197" s="5"/>
       <c r="AM197" s="5"/>
@@ -11604,7 +11795,7 @@
       <c r="CC197" s="5"/>
       <c r="CD197" s="5"/>
     </row>
-    <row r="198" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="198" spans="3:82">
       <c r="C198" s="3"/>
       <c r="AL198" s="5"/>
       <c r="AM198" s="5"/>
@@ -11652,7 +11843,7 @@
       <c r="CC198" s="5"/>
       <c r="CD198" s="5"/>
     </row>
-    <row r="199" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="199" spans="3:82">
       <c r="C199" s="3"/>
       <c r="AL199" s="5"/>
       <c r="AM199" s="5"/>
@@ -11700,7 +11891,7 @@
       <c r="CC199" s="5"/>
       <c r="CD199" s="5"/>
     </row>
-    <row r="200" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="200" spans="3:82">
       <c r="C200" s="3"/>
       <c r="AL200" s="5"/>
       <c r="AM200" s="5"/>
@@ -11748,7 +11939,7 @@
       <c r="CC200" s="5"/>
       <c r="CD200" s="5"/>
     </row>
-    <row r="201" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="201" spans="3:82">
       <c r="C201" s="3"/>
       <c r="AL201" s="5"/>
       <c r="AM201" s="5"/>
@@ -11796,7 +11987,7 @@
       <c r="CC201" s="5"/>
       <c r="CD201" s="5"/>
     </row>
-    <row r="202" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="202" spans="3:82">
       <c r="C202" s="3"/>
       <c r="AL202" s="5"/>
       <c r="AM202" s="5"/>
@@ -11844,7 +12035,7 @@
       <c r="CC202" s="5"/>
       <c r="CD202" s="5"/>
     </row>
-    <row r="203" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="203" spans="3:82">
       <c r="C203" s="3"/>
       <c r="AL203" s="5"/>
       <c r="AM203" s="5"/>
@@ -11892,7 +12083,7 @@
       <c r="CC203" s="5"/>
       <c r="CD203" s="5"/>
     </row>
-    <row r="204" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="204" spans="3:82">
       <c r="C204" s="3"/>
       <c r="AL204" s="5"/>
       <c r="AM204" s="5"/>
@@ -11940,7 +12131,7 @@
       <c r="CC204" s="5"/>
       <c r="CD204" s="5"/>
     </row>
-    <row r="205" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="205" spans="3:82">
       <c r="C205" s="3"/>
       <c r="AL205" s="5"/>
       <c r="AM205" s="5"/>
@@ -11988,7 +12179,7 @@
       <c r="CC205" s="5"/>
       <c r="CD205" s="5"/>
     </row>
-    <row r="206" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="206" spans="3:82">
       <c r="C206" s="3"/>
       <c r="AL206" s="5"/>
       <c r="AM206" s="5"/>
@@ -12036,7 +12227,7 @@
       <c r="CC206" s="5"/>
       <c r="CD206" s="5"/>
     </row>
-    <row r="207" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="207" spans="3:82">
       <c r="C207" s="3"/>
       <c r="AL207" s="5"/>
       <c r="AM207" s="5"/>
@@ -12084,7 +12275,7 @@
       <c r="CC207" s="5"/>
       <c r="CD207" s="5"/>
     </row>
-    <row r="208" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="208" spans="3:82">
       <c r="C208" s="3"/>
       <c r="AL208" s="5"/>
       <c r="AM208" s="5"/>
@@ -12132,7 +12323,7 @@
       <c r="CC208" s="5"/>
       <c r="CD208" s="5"/>
     </row>
-    <row r="209" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="209" spans="3:82">
       <c r="C209" s="3"/>
       <c r="AL209" s="5"/>
       <c r="AM209" s="5"/>
@@ -12180,7 +12371,7 @@
       <c r="CC209" s="5"/>
       <c r="CD209" s="5"/>
     </row>
-    <row r="210" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="210" spans="3:82">
       <c r="C210" s="3"/>
       <c r="AL210" s="5"/>
       <c r="AM210" s="5"/>
@@ -12228,7 +12419,7 @@
       <c r="CC210" s="5"/>
       <c r="CD210" s="5"/>
     </row>
-    <row r="211" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="211" spans="3:82">
       <c r="C211" s="3"/>
       <c r="AL211" s="5"/>
       <c r="AM211" s="5"/>
@@ -12276,7 +12467,7 @@
       <c r="CC211" s="5"/>
       <c r="CD211" s="5"/>
     </row>
-    <row r="212" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="212" spans="3:82">
       <c r="C212" s="3"/>
       <c r="AL212" s="5"/>
       <c r="AM212" s="5"/>
@@ -12324,7 +12515,7 @@
       <c r="CC212" s="5"/>
       <c r="CD212" s="5"/>
     </row>
-    <row r="213" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="213" spans="3:82">
       <c r="C213" s="3"/>
       <c r="AL213" s="5"/>
       <c r="AM213" s="5"/>
@@ -12372,7 +12563,7 @@
       <c r="CC213" s="5"/>
       <c r="CD213" s="5"/>
     </row>
-    <row r="214" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="214" spans="3:82">
       <c r="C214" s="3"/>
       <c r="AL214" s="5"/>
       <c r="AM214" s="5"/>
@@ -12420,7 +12611,7 @@
       <c r="CC214" s="5"/>
       <c r="CD214" s="5"/>
     </row>
-    <row r="215" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="215" spans="3:82">
       <c r="C215" s="3"/>
       <c r="AL215" s="5"/>
       <c r="AM215" s="5"/>
@@ -12468,7 +12659,7 @@
       <c r="CC215" s="5"/>
       <c r="CD215" s="5"/>
     </row>
-    <row r="216" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="216" spans="3:82">
       <c r="C216" s="3"/>
       <c r="AL216" s="5"/>
       <c r="AM216" s="5"/>
@@ -12516,7 +12707,7 @@
       <c r="CC216" s="5"/>
       <c r="CD216" s="5"/>
     </row>
-    <row r="217" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="217" spans="3:82">
       <c r="C217" s="3"/>
       <c r="AL217" s="5"/>
       <c r="AM217" s="5"/>
@@ -12564,7 +12755,7 @@
       <c r="CC217" s="5"/>
       <c r="CD217" s="5"/>
     </row>
-    <row r="218" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="218" spans="3:82">
       <c r="C218" s="3"/>
       <c r="AL218" s="5"/>
       <c r="AM218" s="5"/>
@@ -12612,7 +12803,7 @@
       <c r="CC218" s="5"/>
       <c r="CD218" s="5"/>
     </row>
-    <row r="219" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="219" spans="3:82">
       <c r="C219" s="3"/>
       <c r="AL219" s="5"/>
       <c r="AM219" s="5"/>
@@ -12660,7 +12851,7 @@
       <c r="CC219" s="5"/>
       <c r="CD219" s="5"/>
     </row>
-    <row r="220" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="220" spans="3:82">
       <c r="C220" s="3"/>
       <c r="AL220" s="5"/>
       <c r="AM220" s="5"/>
@@ -12708,7 +12899,7 @@
       <c r="CC220" s="5"/>
       <c r="CD220" s="5"/>
     </row>
-    <row r="221" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="221" spans="3:82">
       <c r="C221" s="3"/>
       <c r="AL221" s="5"/>
       <c r="AM221" s="5"/>
@@ -12756,7 +12947,7 @@
       <c r="CC221" s="5"/>
       <c r="CD221" s="5"/>
     </row>
-    <row r="222" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="222" spans="3:82">
       <c r="C222" s="3"/>
       <c r="AL222" s="5"/>
       <c r="AM222" s="5"/>
@@ -12804,7 +12995,7 @@
       <c r="CC222" s="5"/>
       <c r="CD222" s="5"/>
     </row>
-    <row r="223" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="223" spans="3:82">
       <c r="C223" s="3"/>
       <c r="AL223" s="5"/>
       <c r="AM223" s="5"/>
@@ -12852,55 +13043,55 @@
       <c r="CC223" s="5"/>
       <c r="CD223" s="5"/>
     </row>
-    <row r="224" spans="3:82" x14ac:dyDescent="0.15">
+    <row r="224" spans="3:82">
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="225" spans="3:3">
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="226" spans="3:3">
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="227" spans="3:3">
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="228" spans="3:3">
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="229" spans="3:3">
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="230" spans="3:3">
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="231" spans="3:3">
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="232" spans="3:3">
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="233" spans="3:3">
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="234" spans="3:3">
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="235" spans="3:3">
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="236" spans="3:3">
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="237" spans="3:3">
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="238" spans="3:3">
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="239" spans="3:3">
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="240" spans="3:3">
       <c r="C240" s="3"/>
     </row>
   </sheetData>
@@ -12925,7 +13116,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12939,10 +13130,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/일정표_안정인.xlsx
+++ b/일정표_안정인.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anji0\Documents\GitHub\2021NGP_VTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A8BF6-854F-4168-85E5-0E6F8E0DB57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B8E786-7CF7-4C53-A62C-C9F7473553B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="315" windowWidth="21840" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,10 +116,6 @@
   </si>
   <si>
     <t>서버 플레이어 구조체 제작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client recv() -&gt; Server send()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,6 +300,23 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Client recv() -&gt; Server send()</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="한컴 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>(플레이어 배치)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -313,7 +326,7 @@
     <numFmt numFmtId="176" formatCode="##&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -440,6 +453,14 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="한컴 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -2070,6 +2091,12 @@
     <xf numFmtId="14" fontId="6" fillId="11" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="12" borderId="1" xfId="5" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2096,12 +2123,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="12" borderId="1" xfId="5" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2460,10 +2481,10 @@
       <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
@@ -2474,41 +2495,41 @@
     <col min="80" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:77" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="115"/>
       <c r="AG1" s="5"/>
       <c r="AH1" s="5"/>
       <c r="AI1" s="7"/>
@@ -2553,47 +2574,47 @@
       <c r="BV1" s="7"/>
       <c r="BW1" s="4"/>
     </row>
-    <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1">
-      <c r="A2" s="116" t="s">
+    <row r="2" spans="1:77" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="110" t="s">
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
       <c r="AG2" s="6"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -2636,9 +2657,9 @@
       <c r="BT2" s="5"/>
       <c r="BU2" s="5"/>
     </row>
-    <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
+    <row r="3" spans="1:77" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="119"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="75">
         <v>8</v>
       </c>
@@ -2768,7 +2789,7 @@
       <c r="BQ3" s="5"/>
       <c r="BR3" s="5"/>
     </row>
-    <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1">
+    <row r="4" spans="1:77" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
@@ -2847,8 +2868,8 @@
       <c r="BT4" s="5"/>
       <c r="BU4" s="5"/>
     </row>
-    <row r="5" spans="1:77" ht="15" customHeight="1">
-      <c r="A5" s="119" t="s">
+    <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="110" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="17"/>
@@ -2924,9 +2945,9 @@
       <c r="BT5" s="5"/>
       <c r="BU5" s="5"/>
     </row>
-    <row r="6" spans="1:77" ht="15" customHeight="1">
+    <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="21"/>
@@ -3001,9 +3022,9 @@
       <c r="BT6" s="5"/>
       <c r="BU6" s="5"/>
     </row>
-    <row r="7" spans="1:77" ht="15" customHeight="1">
+    <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="21"/>
@@ -3078,7 +3099,7 @@
       <c r="BT7" s="5"/>
       <c r="BU7" s="5"/>
     </row>
-    <row r="8" spans="1:77" ht="15" customHeight="1">
+    <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76" t="s">
         <v>7</v>
       </c>
@@ -3157,8 +3178,8 @@
       <c r="BT8" s="5"/>
       <c r="BU8" s="5"/>
     </row>
-    <row r="9" spans="1:77" ht="15" customHeight="1">
-      <c r="A9" s="120" t="s">
+    <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="111" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="32"/>
@@ -3234,9 +3255,9 @@
       <c r="BT9" s="5"/>
       <c r="BU9" s="5"/>
     </row>
-    <row r="10" spans="1:77" ht="15" customHeight="1">
+    <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="21"/>
@@ -3311,9 +3332,9 @@
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
     </row>
-    <row r="11" spans="1:77" ht="15" customHeight="1">
+    <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="21"/>
@@ -3388,9 +3409,9 @@
       <c r="BT11" s="5"/>
       <c r="BU11" s="5"/>
     </row>
-    <row r="12" spans="1:77" ht="15" customHeight="1">
-      <c r="A12" s="120" t="s">
-        <v>27</v>
+    <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="111" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="27"/>
@@ -3465,9 +3486,9 @@
       <c r="BT12" s="5"/>
       <c r="BU12" s="5"/>
     </row>
-    <row r="13" spans="1:77" ht="15" customHeight="1">
-      <c r="A13" s="120" t="s">
-        <v>26</v>
+    <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="111" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="12"/>
@@ -3546,9 +3567,9 @@
       <c r="BX13" s="5"/>
       <c r="BY13" s="5"/>
     </row>
-    <row r="14" spans="1:77" ht="15" customHeight="1">
-      <c r="A14" s="120" t="s">
-        <v>24</v>
+    <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="111" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="21"/>
@@ -3627,7 +3648,7 @@
       <c r="BX14" s="5"/>
       <c r="BY14" s="5"/>
     </row>
-    <row r="15" spans="1:77" ht="15" customHeight="1">
+    <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
         <v>5</v>
       </c>
@@ -3710,8 +3731,8 @@
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
     </row>
-    <row r="16" spans="1:77" ht="15" customHeight="1">
-      <c r="A16" s="119" t="s">
+    <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="110" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="17"/>
@@ -3791,9 +3812,9 @@
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
     </row>
-    <row r="17" spans="1:77" ht="15" customHeight="1">
-      <c r="A17" s="120" t="s">
-        <v>23</v>
+    <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="111" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="21"/>
@@ -3872,9 +3893,9 @@
       <c r="BX17" s="5"/>
       <c r="BY17" s="5"/>
     </row>
-    <row r="18" spans="1:77" ht="15" customHeight="1">
-      <c r="A18" s="119" t="s">
-        <v>25</v>
+    <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="110" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="21"/>
@@ -3953,7 +3974,7 @@
       <c r="BX18" s="5"/>
       <c r="BY18" s="5"/>
     </row>
-    <row r="19" spans="1:77" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="45"/>
       <c r="C19" s="49"/>
@@ -4032,7 +4053,7 @@
       <c r="BX19" s="5"/>
       <c r="BY19" s="5"/>
     </row>
-    <row r="20" spans="1:77" ht="15" customHeight="1">
+    <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="77" t="s">
         <v>8</v>
       </c>
@@ -4115,7 +4136,7 @@
       <c r="BX20" s="5"/>
       <c r="BY20" s="5"/>
     </row>
-    <row r="21" spans="1:77" ht="15" customHeight="1">
+    <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
         <v>9</v>
       </c>
@@ -4196,7 +4217,7 @@
       <c r="BX21" s="5"/>
       <c r="BY21" s="5"/>
     </row>
-    <row r="22" spans="1:77" ht="15" customHeight="1">
+    <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37" t="s">
         <v>10</v>
       </c>
@@ -4277,7 +4298,7 @@
       <c r="BX22" s="5"/>
       <c r="BY22" s="5"/>
     </row>
-    <row r="23" spans="1:77" ht="15" customHeight="1">
+    <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="78" t="s">
         <v>11</v>
       </c>
@@ -4360,7 +4381,7 @@
       <c r="BX23" s="5"/>
       <c r="BY23" s="5"/>
     </row>
-    <row r="24" spans="1:77" ht="15" customHeight="1">
+    <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="37" t="s">
         <v>12</v>
       </c>
@@ -4441,7 +4462,7 @@
       <c r="BX24" s="5"/>
       <c r="BY24" s="5"/>
     </row>
-    <row r="25" spans="1:77" ht="15" customHeight="1">
+    <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="37" t="s">
         <v>13</v>
       </c>
@@ -4522,7 +4543,7 @@
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
     </row>
-    <row r="26" spans="1:77" ht="15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="s">
         <v>14</v>
       </c>
@@ -4603,7 +4624,7 @@
       <c r="BX26" s="5"/>
       <c r="BY26" s="5"/>
     </row>
-    <row r="27" spans="1:77" ht="15" customHeight="1" thickBot="1">
+    <row r="27" spans="1:77" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="101"/>
       <c r="B27" s="109" t="s">
         <v>20</v>
@@ -4684,7 +4705,7 @@
       <c r="BX27" s="5"/>
       <c r="BY27" s="5"/>
     </row>
-    <row r="28" spans="1:77" ht="15" customHeight="1">
+    <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -4731,7 +4752,7 @@
       <c r="AR28" s="5"/>
       <c r="AS28" s="5"/>
     </row>
-    <row r="29" spans="1:77" ht="15" customHeight="1">
+    <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -4778,7 +4799,7 @@
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
     </row>
-    <row r="30" spans="1:77" ht="15" customHeight="1">
+    <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -4825,7 +4846,7 @@
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
     </row>
-    <row r="31" spans="1:77" ht="15" customHeight="1">
+    <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -4872,7 +4893,7 @@
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
     </row>
-    <row r="32" spans="1:77" ht="15" customHeight="1">
+    <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -4919,7 +4940,7 @@
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
     </row>
-    <row r="33" spans="1:77" ht="15" customHeight="1">
+    <row r="33" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -4966,7 +4987,7 @@
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
     </row>
-    <row r="34" spans="1:77" ht="15" customHeight="1">
+    <row r="34" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5013,7 +5034,7 @@
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
     </row>
-    <row r="35" spans="1:77" ht="15" customHeight="1">
+    <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5060,7 +5081,7 @@
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
     </row>
-    <row r="36" spans="1:77" ht="15" customHeight="1">
+    <row r="36" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5106,7 +5127,7 @@
       <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
     </row>
-    <row r="37" spans="1:77" ht="15" customHeight="1">
+    <row r="37" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -5152,7 +5173,7 @@
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
     </row>
-    <row r="38" spans="1:77" ht="15" customHeight="1">
+    <row r="38" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -5202,7 +5223,7 @@
       <c r="BX38" s="5"/>
       <c r="BY38" s="5"/>
     </row>
-    <row r="39" spans="1:77" ht="15" customHeight="1">
+    <row r="39" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -5252,7 +5273,7 @@
       <c r="BX39" s="5"/>
       <c r="BY39" s="5"/>
     </row>
-    <row r="40" spans="1:77" ht="15" customHeight="1">
+    <row r="40" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5300,7 +5321,7 @@
       <c r="BX40" s="5"/>
       <c r="BY40" s="5"/>
     </row>
-    <row r="41" spans="1:77" ht="15" customHeight="1">
+    <row r="41" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -5348,56 +5369,56 @@
       <c r="BX41" s="5"/>
       <c r="BY41" s="5"/>
     </row>
-    <row r="42" spans="1:77" ht="13.5" customHeight="1">
+    <row r="42" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:77" ht="13.5" customHeight="1">
+    <row r="43" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:77" ht="13.5" customHeight="1">
+    <row r="44" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:77" ht="13.5" customHeight="1">
+    <row r="45" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:77" ht="13.5" customHeight="1">
+    <row r="46" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:77" ht="13.5" customHeight="1">
+    <row r="47" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:77" ht="13.5" customHeight="1">
+    <row r="48" spans="1:77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:43" ht="13.5" customHeight="1">
+    <row r="49" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -5408,7 +5429,7 @@
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
     </row>
-    <row r="50" spans="1:43" ht="13.5" customHeight="1">
+    <row r="50" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -5419,7 +5440,7 @@
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
     </row>
-    <row r="51" spans="1:43" ht="13.5" customHeight="1">
+    <row r="51" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -5457,7 +5478,7 @@
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
     </row>
-    <row r="52" spans="1:43" ht="13.5" customHeight="1">
+    <row r="52" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -5495,7 +5516,7 @@
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -5533,7 +5554,7 @@
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -5571,7 +5592,7 @@
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -5616,7 +5637,7 @@
       <c r="AP55" s="5"/>
       <c r="AQ55" s="5"/>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -5657,7 +5678,7 @@
       <c r="AP56" s="5"/>
       <c r="AQ56" s="5"/>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -5698,7 +5719,7 @@
       <c r="AP57" s="5"/>
       <c r="AQ57" s="5"/>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -5711,7 +5732,7 @@
       <c r="AP58" s="5"/>
       <c r="AQ58" s="5"/>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -5724,7 +5745,7 @@
       <c r="AP59" s="5"/>
       <c r="AQ59" s="5"/>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -5737,7 +5758,7 @@
       <c r="AP60" s="5"/>
       <c r="AQ60" s="5"/>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -5750,37 +5771,37 @@
       <c r="AP61" s="5"/>
       <c r="AQ61" s="5"/>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.15">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:82">
+    <row r="65" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:82">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:82">
+    <row r="67" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -5790,7 +5811,7 @@
       <c r="AI67" s="5"/>
       <c r="AJ67" s="5"/>
     </row>
-    <row r="68" spans="1:82">
+    <row r="68" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -5800,7 +5821,7 @@
       <c r="AI68" s="5"/>
       <c r="AJ68" s="5"/>
     </row>
-    <row r="69" spans="1:82">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.15">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -5837,7 +5858,7 @@
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
     </row>
-    <row r="70" spans="1:82">
+    <row r="70" spans="1:82" x14ac:dyDescent="0.15">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -5870,7 +5891,7 @@
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
     </row>
-    <row r="71" spans="1:82">
+    <row r="71" spans="1:82" x14ac:dyDescent="0.15">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -5903,10 +5924,10 @@
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
     </row>
-    <row r="72" spans="1:82">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:82">
+    <row r="73" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C73" s="3"/>
       <c r="AK73" s="5"/>
       <c r="AL73" s="5"/>
@@ -5917,7 +5938,7 @@
       <c r="AQ73" s="5"/>
       <c r="AR73" s="5"/>
     </row>
-    <row r="74" spans="1:82">
+    <row r="74" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C74" s="3"/>
       <c r="AK74" s="5"/>
       <c r="AL74" s="5"/>
@@ -5928,7 +5949,7 @@
       <c r="AQ74" s="5"/>
       <c r="AR74" s="5"/>
     </row>
-    <row r="75" spans="1:82">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C75" s="3"/>
       <c r="AK75" s="5"/>
       <c r="AL75" s="5"/>
@@ -5939,7 +5960,7 @@
       <c r="AQ75" s="5"/>
       <c r="AR75" s="5"/>
     </row>
-    <row r="76" spans="1:82">
+    <row r="76" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C76" s="3"/>
       <c r="AL76" s="5"/>
       <c r="AM76" s="5"/>
@@ -5987,7 +6008,7 @@
       <c r="CC76" s="5"/>
       <c r="CD76" s="5"/>
     </row>
-    <row r="77" spans="1:82">
+    <row r="77" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C77" s="3"/>
       <c r="AL77" s="5"/>
       <c r="AM77" s="5"/>
@@ -6035,7 +6056,7 @@
       <c r="CC77" s="5"/>
       <c r="CD77" s="5"/>
     </row>
-    <row r="78" spans="1:82">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C78" s="3"/>
       <c r="AL78" s="5"/>
       <c r="AM78" s="5"/>
@@ -6083,7 +6104,7 @@
       <c r="CC78" s="5"/>
       <c r="CD78" s="5"/>
     </row>
-    <row r="79" spans="1:82">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C79" s="3"/>
       <c r="AL79" s="5"/>
       <c r="AM79" s="5"/>
@@ -6131,7 +6152,7 @@
       <c r="CC79" s="5"/>
       <c r="CD79" s="5"/>
     </row>
-    <row r="80" spans="1:82">
+    <row r="80" spans="1:82" x14ac:dyDescent="0.15">
       <c r="C80" s="3"/>
       <c r="AL80" s="5"/>
       <c r="AM80" s="5"/>
@@ -6179,7 +6200,7 @@
       <c r="CC80" s="5"/>
       <c r="CD80" s="5"/>
     </row>
-    <row r="81" spans="3:82">
+    <row r="81" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C81" s="3"/>
       <c r="AL81" s="5"/>
       <c r="AM81" s="5"/>
@@ -6227,7 +6248,7 @@
       <c r="CC81" s="5"/>
       <c r="CD81" s="5"/>
     </row>
-    <row r="82" spans="3:82">
+    <row r="82" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C82" s="3"/>
       <c r="AL82" s="5"/>
       <c r="AM82" s="5"/>
@@ -6275,7 +6296,7 @@
       <c r="CC82" s="5"/>
       <c r="CD82" s="5"/>
     </row>
-    <row r="83" spans="3:82">
+    <row r="83" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C83" s="3"/>
       <c r="AL83" s="5"/>
       <c r="AM83" s="5"/>
@@ -6323,7 +6344,7 @@
       <c r="CC83" s="5"/>
       <c r="CD83" s="5"/>
     </row>
-    <row r="84" spans="3:82">
+    <row r="84" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C84" s="3"/>
       <c r="AL84" s="5"/>
       <c r="AM84" s="5"/>
@@ -6371,7 +6392,7 @@
       <c r="CC84" s="5"/>
       <c r="CD84" s="5"/>
     </row>
-    <row r="85" spans="3:82">
+    <row r="85" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C85" s="3"/>
       <c r="AL85" s="5"/>
       <c r="AM85" s="5"/>
@@ -6419,7 +6440,7 @@
       <c r="CC85" s="5"/>
       <c r="CD85" s="5"/>
     </row>
-    <row r="86" spans="3:82">
+    <row r="86" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C86" s="3"/>
       <c r="AL86" s="5"/>
       <c r="AM86" s="5"/>
@@ -6467,7 +6488,7 @@
       <c r="CC86" s="5"/>
       <c r="CD86" s="5"/>
     </row>
-    <row r="87" spans="3:82">
+    <row r="87" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C87" s="3"/>
       <c r="AL87" s="5"/>
       <c r="AM87" s="5"/>
@@ -6515,7 +6536,7 @@
       <c r="CC87" s="5"/>
       <c r="CD87" s="5"/>
     </row>
-    <row r="88" spans="3:82">
+    <row r="88" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C88" s="3"/>
       <c r="AL88" s="5"/>
       <c r="AM88" s="5"/>
@@ -6563,7 +6584,7 @@
       <c r="CC88" s="5"/>
       <c r="CD88" s="5"/>
     </row>
-    <row r="89" spans="3:82">
+    <row r="89" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C89" s="3"/>
       <c r="AL89" s="5"/>
       <c r="AM89" s="5"/>
@@ -6611,7 +6632,7 @@
       <c r="CC89" s="5"/>
       <c r="CD89" s="5"/>
     </row>
-    <row r="90" spans="3:82">
+    <row r="90" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C90" s="3"/>
       <c r="AL90" s="5"/>
       <c r="AM90" s="5"/>
@@ -6659,7 +6680,7 @@
       <c r="CC90" s="5"/>
       <c r="CD90" s="5"/>
     </row>
-    <row r="91" spans="3:82">
+    <row r="91" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C91" s="3"/>
       <c r="AL91" s="5"/>
       <c r="AM91" s="5"/>
@@ -6707,7 +6728,7 @@
       <c r="CC91" s="5"/>
       <c r="CD91" s="5"/>
     </row>
-    <row r="92" spans="3:82">
+    <row r="92" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C92" s="3"/>
       <c r="AL92" s="5"/>
       <c r="AM92" s="5"/>
@@ -6755,7 +6776,7 @@
       <c r="CC92" s="5"/>
       <c r="CD92" s="5"/>
     </row>
-    <row r="93" spans="3:82">
+    <row r="93" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C93" s="3"/>
       <c r="AL93" s="5"/>
       <c r="AM93" s="5"/>
@@ -6803,7 +6824,7 @@
       <c r="CC93" s="5"/>
       <c r="CD93" s="5"/>
     </row>
-    <row r="94" spans="3:82">
+    <row r="94" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C94" s="3"/>
       <c r="AL94" s="5"/>
       <c r="AM94" s="5"/>
@@ -6851,7 +6872,7 @@
       <c r="CC94" s="5"/>
       <c r="CD94" s="5"/>
     </row>
-    <row r="95" spans="3:82">
+    <row r="95" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C95" s="3"/>
       <c r="AL95" s="5"/>
       <c r="AM95" s="5"/>
@@ -6899,7 +6920,7 @@
       <c r="CC95" s="5"/>
       <c r="CD95" s="5"/>
     </row>
-    <row r="96" spans="3:82">
+    <row r="96" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C96" s="3"/>
       <c r="AL96" s="5"/>
       <c r="AM96" s="5"/>
@@ -6947,7 +6968,7 @@
       <c r="CC96" s="5"/>
       <c r="CD96" s="5"/>
     </row>
-    <row r="97" spans="3:82">
+    <row r="97" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C97" s="3"/>
       <c r="AL97" s="5"/>
       <c r="AM97" s="5"/>
@@ -6995,7 +7016,7 @@
       <c r="CC97" s="5"/>
       <c r="CD97" s="5"/>
     </row>
-    <row r="98" spans="3:82">
+    <row r="98" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C98" s="3"/>
       <c r="AL98" s="5"/>
       <c r="AM98" s="5"/>
@@ -7043,7 +7064,7 @@
       <c r="CC98" s="5"/>
       <c r="CD98" s="5"/>
     </row>
-    <row r="99" spans="3:82">
+    <row r="99" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C99" s="3"/>
       <c r="AL99" s="5"/>
       <c r="AM99" s="5"/>
@@ -7091,7 +7112,7 @@
       <c r="CC99" s="5"/>
       <c r="CD99" s="5"/>
     </row>
-    <row r="100" spans="3:82">
+    <row r="100" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C100" s="3"/>
       <c r="AL100" s="5"/>
       <c r="AM100" s="5"/>
@@ -7139,7 +7160,7 @@
       <c r="CC100" s="5"/>
       <c r="CD100" s="5"/>
     </row>
-    <row r="101" spans="3:82">
+    <row r="101" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C101" s="3"/>
       <c r="AL101" s="5"/>
       <c r="AM101" s="5"/>
@@ -7187,7 +7208,7 @@
       <c r="CC101" s="5"/>
       <c r="CD101" s="5"/>
     </row>
-    <row r="102" spans="3:82">
+    <row r="102" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C102" s="3"/>
       <c r="AL102" s="5"/>
       <c r="AM102" s="5"/>
@@ -7235,7 +7256,7 @@
       <c r="CC102" s="5"/>
       <c r="CD102" s="5"/>
     </row>
-    <row r="103" spans="3:82">
+    <row r="103" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C103" s="3"/>
       <c r="AL103" s="5"/>
       <c r="AM103" s="5"/>
@@ -7283,7 +7304,7 @@
       <c r="CC103" s="5"/>
       <c r="CD103" s="5"/>
     </row>
-    <row r="104" spans="3:82">
+    <row r="104" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C104" s="3"/>
       <c r="AL104" s="5"/>
       <c r="AM104" s="5"/>
@@ -7331,7 +7352,7 @@
       <c r="CC104" s="5"/>
       <c r="CD104" s="5"/>
     </row>
-    <row r="105" spans="3:82">
+    <row r="105" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C105" s="3"/>
       <c r="AL105" s="5"/>
       <c r="AM105" s="5"/>
@@ -7379,7 +7400,7 @@
       <c r="CC105" s="5"/>
       <c r="CD105" s="5"/>
     </row>
-    <row r="106" spans="3:82">
+    <row r="106" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C106" s="3"/>
       <c r="AL106" s="5"/>
       <c r="AM106" s="5"/>
@@ -7427,7 +7448,7 @@
       <c r="CC106" s="5"/>
       <c r="CD106" s="5"/>
     </row>
-    <row r="107" spans="3:82">
+    <row r="107" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C107" s="3"/>
       <c r="AL107" s="5"/>
       <c r="AM107" s="5"/>
@@ -7475,7 +7496,7 @@
       <c r="CC107" s="5"/>
       <c r="CD107" s="5"/>
     </row>
-    <row r="108" spans="3:82">
+    <row r="108" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C108" s="3"/>
       <c r="AL108" s="5"/>
       <c r="AM108" s="5"/>
@@ -7523,7 +7544,7 @@
       <c r="CC108" s="5"/>
       <c r="CD108" s="5"/>
     </row>
-    <row r="109" spans="3:82">
+    <row r="109" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C109" s="3"/>
       <c r="AL109" s="5"/>
       <c r="AM109" s="5"/>
@@ -7571,7 +7592,7 @@
       <c r="CC109" s="5"/>
       <c r="CD109" s="5"/>
     </row>
-    <row r="110" spans="3:82">
+    <row r="110" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C110" s="3"/>
       <c r="AL110" s="5"/>
       <c r="AM110" s="5"/>
@@ -7619,7 +7640,7 @@
       <c r="CC110" s="5"/>
       <c r="CD110" s="5"/>
     </row>
-    <row r="111" spans="3:82">
+    <row r="111" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C111" s="3"/>
       <c r="AL111" s="5"/>
       <c r="AM111" s="5"/>
@@ -7667,7 +7688,7 @@
       <c r="CC111" s="5"/>
       <c r="CD111" s="5"/>
     </row>
-    <row r="112" spans="3:82">
+    <row r="112" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C112" s="3"/>
       <c r="AL112" s="5"/>
       <c r="AM112" s="5"/>
@@ -7715,7 +7736,7 @@
       <c r="CC112" s="5"/>
       <c r="CD112" s="5"/>
     </row>
-    <row r="113" spans="3:82">
+    <row r="113" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C113" s="3"/>
       <c r="AL113" s="5"/>
       <c r="AM113" s="5"/>
@@ -7763,7 +7784,7 @@
       <c r="CC113" s="5"/>
       <c r="CD113" s="5"/>
     </row>
-    <row r="114" spans="3:82">
+    <row r="114" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C114" s="3"/>
       <c r="AL114" s="5"/>
       <c r="AM114" s="5"/>
@@ -7811,7 +7832,7 @@
       <c r="CC114" s="5"/>
       <c r="CD114" s="5"/>
     </row>
-    <row r="115" spans="3:82">
+    <row r="115" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C115" s="3"/>
       <c r="AL115" s="5"/>
       <c r="AM115" s="5"/>
@@ -7859,7 +7880,7 @@
       <c r="CC115" s="5"/>
       <c r="CD115" s="5"/>
     </row>
-    <row r="116" spans="3:82">
+    <row r="116" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C116" s="3"/>
       <c r="AL116" s="5"/>
       <c r="AM116" s="5"/>
@@ -7907,7 +7928,7 @@
       <c r="CC116" s="5"/>
       <c r="CD116" s="5"/>
     </row>
-    <row r="117" spans="3:82">
+    <row r="117" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C117" s="3"/>
       <c r="AL117" s="5"/>
       <c r="AM117" s="5"/>
@@ -7955,7 +7976,7 @@
       <c r="CC117" s="5"/>
       <c r="CD117" s="5"/>
     </row>
-    <row r="118" spans="3:82">
+    <row r="118" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C118" s="3"/>
       <c r="AL118" s="5"/>
       <c r="AM118" s="5"/>
@@ -8003,7 +8024,7 @@
       <c r="CC118" s="5"/>
       <c r="CD118" s="5"/>
     </row>
-    <row r="119" spans="3:82">
+    <row r="119" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C119" s="3"/>
       <c r="AL119" s="5"/>
       <c r="AM119" s="5"/>
@@ -8051,7 +8072,7 @@
       <c r="CC119" s="5"/>
       <c r="CD119" s="5"/>
     </row>
-    <row r="120" spans="3:82">
+    <row r="120" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C120" s="3"/>
       <c r="AL120" s="5"/>
       <c r="AM120" s="5"/>
@@ -8099,7 +8120,7 @@
       <c r="CC120" s="5"/>
       <c r="CD120" s="5"/>
     </row>
-    <row r="121" spans="3:82">
+    <row r="121" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C121" s="3"/>
       <c r="AL121" s="5"/>
       <c r="AM121" s="5"/>
@@ -8147,7 +8168,7 @@
       <c r="CC121" s="5"/>
       <c r="CD121" s="5"/>
     </row>
-    <row r="122" spans="3:82">
+    <row r="122" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C122" s="3"/>
       <c r="AL122" s="5"/>
       <c r="AM122" s="5"/>
@@ -8195,7 +8216,7 @@
       <c r="CC122" s="5"/>
       <c r="CD122" s="5"/>
     </row>
-    <row r="123" spans="3:82">
+    <row r="123" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C123" s="3"/>
       <c r="AL123" s="5"/>
       <c r="AM123" s="5"/>
@@ -8243,7 +8264,7 @@
       <c r="CC123" s="5"/>
       <c r="CD123" s="5"/>
     </row>
-    <row r="124" spans="3:82">
+    <row r="124" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C124" s="3"/>
       <c r="AL124" s="5"/>
       <c r="AM124" s="5"/>
@@ -8291,7 +8312,7 @@
       <c r="CC124" s="5"/>
       <c r="CD124" s="5"/>
     </row>
-    <row r="125" spans="3:82">
+    <row r="125" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C125" s="3"/>
       <c r="AL125" s="5"/>
       <c r="AM125" s="5"/>
@@ -8339,7 +8360,7 @@
       <c r="CC125" s="5"/>
       <c r="CD125" s="5"/>
     </row>
-    <row r="126" spans="3:82">
+    <row r="126" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C126" s="3"/>
       <c r="AL126" s="5"/>
       <c r="AM126" s="5"/>
@@ -8387,7 +8408,7 @@
       <c r="CC126" s="5"/>
       <c r="CD126" s="5"/>
     </row>
-    <row r="127" spans="3:82">
+    <row r="127" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C127" s="3"/>
       <c r="AL127" s="5"/>
       <c r="AM127" s="5"/>
@@ -8435,7 +8456,7 @@
       <c r="CC127" s="5"/>
       <c r="CD127" s="5"/>
     </row>
-    <row r="128" spans="3:82">
+    <row r="128" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C128" s="3"/>
       <c r="AL128" s="5"/>
       <c r="AM128" s="5"/>
@@ -8483,7 +8504,7 @@
       <c r="CC128" s="5"/>
       <c r="CD128" s="5"/>
     </row>
-    <row r="129" spans="3:82">
+    <row r="129" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C129" s="3"/>
       <c r="AL129" s="5"/>
       <c r="AM129" s="5"/>
@@ -8531,7 +8552,7 @@
       <c r="CC129" s="5"/>
       <c r="CD129" s="5"/>
     </row>
-    <row r="130" spans="3:82">
+    <row r="130" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C130" s="3"/>
       <c r="AL130" s="5"/>
       <c r="AM130" s="5"/>
@@ -8579,7 +8600,7 @@
       <c r="CC130" s="5"/>
       <c r="CD130" s="5"/>
     </row>
-    <row r="131" spans="3:82">
+    <row r="131" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C131" s="3"/>
       <c r="AL131" s="5"/>
       <c r="AM131" s="5"/>
@@ -8627,7 +8648,7 @@
       <c r="CC131" s="5"/>
       <c r="CD131" s="5"/>
     </row>
-    <row r="132" spans="3:82">
+    <row r="132" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C132" s="3"/>
       <c r="AL132" s="5"/>
       <c r="AM132" s="5"/>
@@ -8675,7 +8696,7 @@
       <c r="CC132" s="5"/>
       <c r="CD132" s="5"/>
     </row>
-    <row r="133" spans="3:82">
+    <row r="133" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C133" s="3"/>
       <c r="AL133" s="5"/>
       <c r="AM133" s="5"/>
@@ -8723,7 +8744,7 @@
       <c r="CC133" s="5"/>
       <c r="CD133" s="5"/>
     </row>
-    <row r="134" spans="3:82">
+    <row r="134" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C134" s="3"/>
       <c r="AL134" s="5"/>
       <c r="AM134" s="5"/>
@@ -8771,7 +8792,7 @@
       <c r="CC134" s="5"/>
       <c r="CD134" s="5"/>
     </row>
-    <row r="135" spans="3:82">
+    <row r="135" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C135" s="3"/>
       <c r="AL135" s="5"/>
       <c r="AM135" s="5"/>
@@ -8819,7 +8840,7 @@
       <c r="CC135" s="5"/>
       <c r="CD135" s="5"/>
     </row>
-    <row r="136" spans="3:82">
+    <row r="136" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C136" s="3"/>
       <c r="AL136" s="5"/>
       <c r="AM136" s="5"/>
@@ -8867,7 +8888,7 @@
       <c r="CC136" s="5"/>
       <c r="CD136" s="5"/>
     </row>
-    <row r="137" spans="3:82">
+    <row r="137" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C137" s="3"/>
       <c r="AL137" s="5"/>
       <c r="AM137" s="5"/>
@@ -8915,7 +8936,7 @@
       <c r="CC137" s="5"/>
       <c r="CD137" s="5"/>
     </row>
-    <row r="138" spans="3:82">
+    <row r="138" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C138" s="3"/>
       <c r="AL138" s="5"/>
       <c r="AM138" s="5"/>
@@ -8963,7 +8984,7 @@
       <c r="CC138" s="5"/>
       <c r="CD138" s="5"/>
     </row>
-    <row r="139" spans="3:82">
+    <row r="139" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C139" s="3"/>
       <c r="AL139" s="5"/>
       <c r="AM139" s="5"/>
@@ -9011,7 +9032,7 @@
       <c r="CC139" s="5"/>
       <c r="CD139" s="5"/>
     </row>
-    <row r="140" spans="3:82">
+    <row r="140" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C140" s="3"/>
       <c r="AL140" s="5"/>
       <c r="AM140" s="5"/>
@@ -9059,7 +9080,7 @@
       <c r="CC140" s="5"/>
       <c r="CD140" s="5"/>
     </row>
-    <row r="141" spans="3:82">
+    <row r="141" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C141" s="3"/>
       <c r="AL141" s="5"/>
       <c r="AM141" s="5"/>
@@ -9107,7 +9128,7 @@
       <c r="CC141" s="5"/>
       <c r="CD141" s="5"/>
     </row>
-    <row r="142" spans="3:82">
+    <row r="142" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C142" s="3"/>
       <c r="AL142" s="5"/>
       <c r="AM142" s="5"/>
@@ -9155,7 +9176,7 @@
       <c r="CC142" s="5"/>
       <c r="CD142" s="5"/>
     </row>
-    <row r="143" spans="3:82">
+    <row r="143" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C143" s="3"/>
       <c r="AL143" s="5"/>
       <c r="AM143" s="5"/>
@@ -9203,7 +9224,7 @@
       <c r="CC143" s="5"/>
       <c r="CD143" s="5"/>
     </row>
-    <row r="144" spans="3:82">
+    <row r="144" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C144" s="3"/>
       <c r="AL144" s="5"/>
       <c r="AM144" s="5"/>
@@ -9251,7 +9272,7 @@
       <c r="CC144" s="5"/>
       <c r="CD144" s="5"/>
     </row>
-    <row r="145" spans="3:82">
+    <row r="145" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C145" s="3"/>
       <c r="AL145" s="5"/>
       <c r="AM145" s="5"/>
@@ -9299,7 +9320,7 @@
       <c r="CC145" s="5"/>
       <c r="CD145" s="5"/>
     </row>
-    <row r="146" spans="3:82">
+    <row r="146" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C146" s="3"/>
       <c r="AL146" s="5"/>
       <c r="AM146" s="5"/>
@@ -9347,7 +9368,7 @@
       <c r="CC146" s="5"/>
       <c r="CD146" s="5"/>
     </row>
-    <row r="147" spans="3:82">
+    <row r="147" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C147" s="3"/>
       <c r="AL147" s="5"/>
       <c r="AM147" s="5"/>
@@ -9395,7 +9416,7 @@
       <c r="CC147" s="5"/>
       <c r="CD147" s="5"/>
     </row>
-    <row r="148" spans="3:82">
+    <row r="148" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C148" s="3"/>
       <c r="AL148" s="5"/>
       <c r="AM148" s="5"/>
@@ -9443,7 +9464,7 @@
       <c r="CC148" s="5"/>
       <c r="CD148" s="5"/>
     </row>
-    <row r="149" spans="3:82">
+    <row r="149" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C149" s="3"/>
       <c r="AL149" s="5"/>
       <c r="AM149" s="5"/>
@@ -9491,7 +9512,7 @@
       <c r="CC149" s="5"/>
       <c r="CD149" s="5"/>
     </row>
-    <row r="150" spans="3:82">
+    <row r="150" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C150" s="3"/>
       <c r="AL150" s="5"/>
       <c r="AM150" s="5"/>
@@ -9539,7 +9560,7 @@
       <c r="CC150" s="5"/>
       <c r="CD150" s="5"/>
     </row>
-    <row r="151" spans="3:82">
+    <row r="151" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C151" s="3"/>
       <c r="AL151" s="5"/>
       <c r="AM151" s="5"/>
@@ -9587,7 +9608,7 @@
       <c r="CC151" s="5"/>
       <c r="CD151" s="5"/>
     </row>
-    <row r="152" spans="3:82">
+    <row r="152" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C152" s="3"/>
       <c r="AL152" s="5"/>
       <c r="AM152" s="5"/>
@@ -9635,7 +9656,7 @@
       <c r="CC152" s="5"/>
       <c r="CD152" s="5"/>
     </row>
-    <row r="153" spans="3:82">
+    <row r="153" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C153" s="3"/>
       <c r="AL153" s="5"/>
       <c r="AM153" s="5"/>
@@ -9683,7 +9704,7 @@
       <c r="CC153" s="5"/>
       <c r="CD153" s="5"/>
     </row>
-    <row r="154" spans="3:82">
+    <row r="154" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C154" s="3"/>
       <c r="AL154" s="5"/>
       <c r="AM154" s="5"/>
@@ -9731,7 +9752,7 @@
       <c r="CC154" s="5"/>
       <c r="CD154" s="5"/>
     </row>
-    <row r="155" spans="3:82">
+    <row r="155" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C155" s="3"/>
       <c r="AL155" s="5"/>
       <c r="AM155" s="5"/>
@@ -9779,7 +9800,7 @@
       <c r="CC155" s="5"/>
       <c r="CD155" s="5"/>
     </row>
-    <row r="156" spans="3:82">
+    <row r="156" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C156" s="3"/>
       <c r="AL156" s="5"/>
       <c r="AM156" s="5"/>
@@ -9827,7 +9848,7 @@
       <c r="CC156" s="5"/>
       <c r="CD156" s="5"/>
     </row>
-    <row r="157" spans="3:82">
+    <row r="157" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C157" s="3"/>
       <c r="AL157" s="5"/>
       <c r="AM157" s="5"/>
@@ -9875,7 +9896,7 @@
       <c r="CC157" s="5"/>
       <c r="CD157" s="5"/>
     </row>
-    <row r="158" spans="3:82">
+    <row r="158" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C158" s="3"/>
       <c r="AL158" s="5"/>
       <c r="AM158" s="5"/>
@@ -9923,7 +9944,7 @@
       <c r="CC158" s="5"/>
       <c r="CD158" s="5"/>
     </row>
-    <row r="159" spans="3:82">
+    <row r="159" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C159" s="3"/>
       <c r="AL159" s="5"/>
       <c r="AM159" s="5"/>
@@ -9971,7 +9992,7 @@
       <c r="CC159" s="5"/>
       <c r="CD159" s="5"/>
     </row>
-    <row r="160" spans="3:82">
+    <row r="160" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C160" s="3"/>
       <c r="AL160" s="5"/>
       <c r="AM160" s="5"/>
@@ -10019,7 +10040,7 @@
       <c r="CC160" s="5"/>
       <c r="CD160" s="5"/>
     </row>
-    <row r="161" spans="3:82">
+    <row r="161" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C161" s="3"/>
       <c r="AL161" s="5"/>
       <c r="AM161" s="5"/>
@@ -10067,7 +10088,7 @@
       <c r="CC161" s="5"/>
       <c r="CD161" s="5"/>
     </row>
-    <row r="162" spans="3:82">
+    <row r="162" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C162" s="3"/>
       <c r="AL162" s="5"/>
       <c r="AM162" s="5"/>
@@ -10115,7 +10136,7 @@
       <c r="CC162" s="5"/>
       <c r="CD162" s="5"/>
     </row>
-    <row r="163" spans="3:82">
+    <row r="163" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C163" s="3"/>
       <c r="AL163" s="5"/>
       <c r="AM163" s="5"/>
@@ -10163,7 +10184,7 @@
       <c r="CC163" s="5"/>
       <c r="CD163" s="5"/>
     </row>
-    <row r="164" spans="3:82">
+    <row r="164" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C164" s="3"/>
       <c r="AL164" s="5"/>
       <c r="AM164" s="5"/>
@@ -10211,7 +10232,7 @@
       <c r="CC164" s="5"/>
       <c r="CD164" s="5"/>
     </row>
-    <row r="165" spans="3:82">
+    <row r="165" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C165" s="3"/>
       <c r="AL165" s="5"/>
       <c r="AM165" s="5"/>
@@ -10259,7 +10280,7 @@
       <c r="CC165" s="5"/>
       <c r="CD165" s="5"/>
     </row>
-    <row r="166" spans="3:82">
+    <row r="166" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C166" s="3"/>
       <c r="AL166" s="5"/>
       <c r="AM166" s="5"/>
@@ -10307,7 +10328,7 @@
       <c r="CC166" s="5"/>
       <c r="CD166" s="5"/>
     </row>
-    <row r="167" spans="3:82">
+    <row r="167" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C167" s="3"/>
       <c r="AL167" s="5"/>
       <c r="AM167" s="5"/>
@@ -10355,7 +10376,7 @@
       <c r="CC167" s="5"/>
       <c r="CD167" s="5"/>
     </row>
-    <row r="168" spans="3:82">
+    <row r="168" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C168" s="3"/>
       <c r="AL168" s="5"/>
       <c r="AM168" s="5"/>
@@ -10403,7 +10424,7 @@
       <c r="CC168" s="5"/>
       <c r="CD168" s="5"/>
     </row>
-    <row r="169" spans="3:82">
+    <row r="169" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C169" s="3"/>
       <c r="AL169" s="5"/>
       <c r="AM169" s="5"/>
@@ -10451,7 +10472,7 @@
       <c r="CC169" s="5"/>
       <c r="CD169" s="5"/>
     </row>
-    <row r="170" spans="3:82">
+    <row r="170" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C170" s="3"/>
       <c r="AL170" s="5"/>
       <c r="AM170" s="5"/>
@@ -10499,7 +10520,7 @@
       <c r="CC170" s="5"/>
       <c r="CD170" s="5"/>
     </row>
-    <row r="171" spans="3:82">
+    <row r="171" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C171" s="3"/>
       <c r="AL171" s="5"/>
       <c r="AM171" s="5"/>
@@ -10547,7 +10568,7 @@
       <c r="CC171" s="5"/>
       <c r="CD171" s="5"/>
     </row>
-    <row r="172" spans="3:82">
+    <row r="172" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C172" s="3"/>
       <c r="AL172" s="5"/>
       <c r="AM172" s="5"/>
@@ -10595,7 +10616,7 @@
       <c r="CC172" s="5"/>
       <c r="CD172" s="5"/>
     </row>
-    <row r="173" spans="3:82">
+    <row r="173" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C173" s="3"/>
       <c r="AL173" s="5"/>
       <c r="AM173" s="5"/>
@@ -10643,7 +10664,7 @@
       <c r="CC173" s="5"/>
       <c r="CD173" s="5"/>
     </row>
-    <row r="174" spans="3:82">
+    <row r="174" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C174" s="3"/>
       <c r="AL174" s="5"/>
       <c r="AM174" s="5"/>
@@ -10691,7 +10712,7 @@
       <c r="CC174" s="5"/>
       <c r="CD174" s="5"/>
     </row>
-    <row r="175" spans="3:82">
+    <row r="175" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C175" s="3"/>
       <c r="AL175" s="5"/>
       <c r="AM175" s="5"/>
@@ -10739,7 +10760,7 @@
       <c r="CC175" s="5"/>
       <c r="CD175" s="5"/>
     </row>
-    <row r="176" spans="3:82">
+    <row r="176" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C176" s="3"/>
       <c r="AL176" s="5"/>
       <c r="AM176" s="5"/>
@@ -10787,7 +10808,7 @@
       <c r="CC176" s="5"/>
       <c r="CD176" s="5"/>
     </row>
-    <row r="177" spans="3:82">
+    <row r="177" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C177" s="3"/>
       <c r="AL177" s="5"/>
       <c r="AM177" s="5"/>
@@ -10835,7 +10856,7 @@
       <c r="CC177" s="5"/>
       <c r="CD177" s="5"/>
     </row>
-    <row r="178" spans="3:82">
+    <row r="178" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C178" s="3"/>
       <c r="AL178" s="5"/>
       <c r="AM178" s="5"/>
@@ -10883,7 +10904,7 @@
       <c r="CC178" s="5"/>
       <c r="CD178" s="5"/>
     </row>
-    <row r="179" spans="3:82">
+    <row r="179" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C179" s="3"/>
       <c r="AL179" s="5"/>
       <c r="AM179" s="5"/>
@@ -10931,7 +10952,7 @@
       <c r="CC179" s="5"/>
       <c r="CD179" s="5"/>
     </row>
-    <row r="180" spans="3:82">
+    <row r="180" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C180" s="3"/>
       <c r="AL180" s="5"/>
       <c r="AM180" s="5"/>
@@ -10979,7 +11000,7 @@
       <c r="CC180" s="5"/>
       <c r="CD180" s="5"/>
     </row>
-    <row r="181" spans="3:82">
+    <row r="181" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C181" s="3"/>
       <c r="AL181" s="5"/>
       <c r="AM181" s="5"/>
@@ -11027,7 +11048,7 @@
       <c r="CC181" s="5"/>
       <c r="CD181" s="5"/>
     </row>
-    <row r="182" spans="3:82">
+    <row r="182" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C182" s="3"/>
       <c r="AL182" s="5"/>
       <c r="AM182" s="5"/>
@@ -11075,7 +11096,7 @@
       <c r="CC182" s="5"/>
       <c r="CD182" s="5"/>
     </row>
-    <row r="183" spans="3:82">
+    <row r="183" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C183" s="3"/>
       <c r="AL183" s="5"/>
       <c r="AM183" s="5"/>
@@ -11123,7 +11144,7 @@
       <c r="CC183" s="5"/>
       <c r="CD183" s="5"/>
     </row>
-    <row r="184" spans="3:82">
+    <row r="184" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C184" s="3"/>
       <c r="AL184" s="5"/>
       <c r="AM184" s="5"/>
@@ -11171,7 +11192,7 @@
       <c r="CC184" s="5"/>
       <c r="CD184" s="5"/>
     </row>
-    <row r="185" spans="3:82">
+    <row r="185" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C185" s="3"/>
       <c r="AL185" s="5"/>
       <c r="AM185" s="5"/>
@@ -11219,7 +11240,7 @@
       <c r="CC185" s="5"/>
       <c r="CD185" s="5"/>
     </row>
-    <row r="186" spans="3:82">
+    <row r="186" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C186" s="3"/>
       <c r="AL186" s="5"/>
       <c r="AM186" s="5"/>
@@ -11267,7 +11288,7 @@
       <c r="CC186" s="5"/>
       <c r="CD186" s="5"/>
     </row>
-    <row r="187" spans="3:82">
+    <row r="187" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C187" s="3"/>
       <c r="AL187" s="5"/>
       <c r="AM187" s="5"/>
@@ -11315,7 +11336,7 @@
       <c r="CC187" s="5"/>
       <c r="CD187" s="5"/>
     </row>
-    <row r="188" spans="3:82">
+    <row r="188" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C188" s="3"/>
       <c r="AL188" s="5"/>
       <c r="AM188" s="5"/>
@@ -11363,7 +11384,7 @@
       <c r="CC188" s="5"/>
       <c r="CD188" s="5"/>
     </row>
-    <row r="189" spans="3:82">
+    <row r="189" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C189" s="3"/>
       <c r="AL189" s="5"/>
       <c r="AM189" s="5"/>
@@ -11411,7 +11432,7 @@
       <c r="CC189" s="5"/>
       <c r="CD189" s="5"/>
     </row>
-    <row r="190" spans="3:82">
+    <row r="190" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C190" s="3"/>
       <c r="AL190" s="5"/>
       <c r="AM190" s="5"/>
@@ -11459,7 +11480,7 @@
       <c r="CC190" s="5"/>
       <c r="CD190" s="5"/>
     </row>
-    <row r="191" spans="3:82">
+    <row r="191" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C191" s="3"/>
       <c r="AL191" s="5"/>
       <c r="AM191" s="5"/>
@@ -11507,7 +11528,7 @@
       <c r="CC191" s="5"/>
       <c r="CD191" s="5"/>
     </row>
-    <row r="192" spans="3:82">
+    <row r="192" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C192" s="3"/>
       <c r="AL192" s="5"/>
       <c r="AM192" s="5"/>
@@ -11555,7 +11576,7 @@
       <c r="CC192" s="5"/>
       <c r="CD192" s="5"/>
     </row>
-    <row r="193" spans="3:82">
+    <row r="193" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C193" s="3"/>
       <c r="AL193" s="5"/>
       <c r="AM193" s="5"/>
@@ -11603,7 +11624,7 @@
       <c r="CC193" s="5"/>
       <c r="CD193" s="5"/>
     </row>
-    <row r="194" spans="3:82">
+    <row r="194" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C194" s="3"/>
       <c r="AL194" s="5"/>
       <c r="AM194" s="5"/>
@@ -11651,7 +11672,7 @@
       <c r="CC194" s="5"/>
       <c r="CD194" s="5"/>
     </row>
-    <row r="195" spans="3:82">
+    <row r="195" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C195" s="3"/>
       <c r="AL195" s="5"/>
       <c r="AM195" s="5"/>
@@ -11699,7 +11720,7 @@
       <c r="CC195" s="5"/>
       <c r="CD195" s="5"/>
     </row>
-    <row r="196" spans="3:82">
+    <row r="196" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C196" s="3"/>
       <c r="AL196" s="5"/>
       <c r="AM196" s="5"/>
@@ -11747,7 +11768,7 @@
       <c r="CC196" s="5"/>
       <c r="CD196" s="5"/>
     </row>
-    <row r="197" spans="3:82">
+    <row r="197" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C197" s="3"/>
       <c r="AL197" s="5"/>
       <c r="AM197" s="5"/>
@@ -11795,7 +11816,7 @@
       <c r="CC197" s="5"/>
       <c r="CD197" s="5"/>
     </row>
-    <row r="198" spans="3:82">
+    <row r="198" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C198" s="3"/>
       <c r="AL198" s="5"/>
       <c r="AM198" s="5"/>
@@ -11843,7 +11864,7 @@
       <c r="CC198" s="5"/>
       <c r="CD198" s="5"/>
     </row>
-    <row r="199" spans="3:82">
+    <row r="199" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C199" s="3"/>
       <c r="AL199" s="5"/>
       <c r="AM199" s="5"/>
@@ -11891,7 +11912,7 @@
       <c r="CC199" s="5"/>
       <c r="CD199" s="5"/>
     </row>
-    <row r="200" spans="3:82">
+    <row r="200" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C200" s="3"/>
       <c r="AL200" s="5"/>
       <c r="AM200" s="5"/>
@@ -11939,7 +11960,7 @@
       <c r="CC200" s="5"/>
       <c r="CD200" s="5"/>
     </row>
-    <row r="201" spans="3:82">
+    <row r="201" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C201" s="3"/>
       <c r="AL201" s="5"/>
       <c r="AM201" s="5"/>
@@ -11987,7 +12008,7 @@
       <c r="CC201" s="5"/>
       <c r="CD201" s="5"/>
     </row>
-    <row r="202" spans="3:82">
+    <row r="202" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C202" s="3"/>
       <c r="AL202" s="5"/>
       <c r="AM202" s="5"/>
@@ -12035,7 +12056,7 @@
       <c r="CC202" s="5"/>
       <c r="CD202" s="5"/>
     </row>
-    <row r="203" spans="3:82">
+    <row r="203" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C203" s="3"/>
       <c r="AL203" s="5"/>
       <c r="AM203" s="5"/>
@@ -12083,7 +12104,7 @@
       <c r="CC203" s="5"/>
       <c r="CD203" s="5"/>
     </row>
-    <row r="204" spans="3:82">
+    <row r="204" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C204" s="3"/>
       <c r="AL204" s="5"/>
       <c r="AM204" s="5"/>
@@ -12131,7 +12152,7 @@
       <c r="CC204" s="5"/>
       <c r="CD204" s="5"/>
     </row>
-    <row r="205" spans="3:82">
+    <row r="205" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C205" s="3"/>
       <c r="AL205" s="5"/>
       <c r="AM205" s="5"/>
@@ -12179,7 +12200,7 @@
       <c r="CC205" s="5"/>
       <c r="CD205" s="5"/>
     </row>
-    <row r="206" spans="3:82">
+    <row r="206" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C206" s="3"/>
       <c r="AL206" s="5"/>
       <c r="AM206" s="5"/>
@@ -12227,7 +12248,7 @@
       <c r="CC206" s="5"/>
       <c r="CD206" s="5"/>
     </row>
-    <row r="207" spans="3:82">
+    <row r="207" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C207" s="3"/>
       <c r="AL207" s="5"/>
       <c r="AM207" s="5"/>
@@ -12275,7 +12296,7 @@
       <c r="CC207" s="5"/>
       <c r="CD207" s="5"/>
     </row>
-    <row r="208" spans="3:82">
+    <row r="208" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C208" s="3"/>
       <c r="AL208" s="5"/>
       <c r="AM208" s="5"/>
@@ -12323,7 +12344,7 @@
       <c r="CC208" s="5"/>
       <c r="CD208" s="5"/>
     </row>
-    <row r="209" spans="3:82">
+    <row r="209" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C209" s="3"/>
       <c r="AL209" s="5"/>
       <c r="AM209" s="5"/>
@@ -12371,7 +12392,7 @@
       <c r="CC209" s="5"/>
       <c r="CD209" s="5"/>
     </row>
-    <row r="210" spans="3:82">
+    <row r="210" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C210" s="3"/>
       <c r="AL210" s="5"/>
       <c r="AM210" s="5"/>
@@ -12419,7 +12440,7 @@
       <c r="CC210" s="5"/>
       <c r="CD210" s="5"/>
     </row>
-    <row r="211" spans="3:82">
+    <row r="211" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C211" s="3"/>
       <c r="AL211" s="5"/>
       <c r="AM211" s="5"/>
@@ -12467,7 +12488,7 @@
       <c r="CC211" s="5"/>
       <c r="CD211" s="5"/>
     </row>
-    <row r="212" spans="3:82">
+    <row r="212" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C212" s="3"/>
       <c r="AL212" s="5"/>
       <c r="AM212" s="5"/>
@@ -12515,7 +12536,7 @@
       <c r="CC212" s="5"/>
       <c r="CD212" s="5"/>
     </row>
-    <row r="213" spans="3:82">
+    <row r="213" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C213" s="3"/>
       <c r="AL213" s="5"/>
       <c r="AM213" s="5"/>
@@ -12563,7 +12584,7 @@
       <c r="CC213" s="5"/>
       <c r="CD213" s="5"/>
     </row>
-    <row r="214" spans="3:82">
+    <row r="214" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C214" s="3"/>
       <c r="AL214" s="5"/>
       <c r="AM214" s="5"/>
@@ -12611,7 +12632,7 @@
       <c r="CC214" s="5"/>
       <c r="CD214" s="5"/>
     </row>
-    <row r="215" spans="3:82">
+    <row r="215" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C215" s="3"/>
       <c r="AL215" s="5"/>
       <c r="AM215" s="5"/>
@@ -12659,7 +12680,7 @@
       <c r="CC215" s="5"/>
       <c r="CD215" s="5"/>
     </row>
-    <row r="216" spans="3:82">
+    <row r="216" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C216" s="3"/>
       <c r="AL216" s="5"/>
       <c r="AM216" s="5"/>
@@ -12707,7 +12728,7 @@
       <c r="CC216" s="5"/>
       <c r="CD216" s="5"/>
     </row>
-    <row r="217" spans="3:82">
+    <row r="217" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C217" s="3"/>
       <c r="AL217" s="5"/>
       <c r="AM217" s="5"/>
@@ -12755,7 +12776,7 @@
       <c r="CC217" s="5"/>
       <c r="CD217" s="5"/>
     </row>
-    <row r="218" spans="3:82">
+    <row r="218" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C218" s="3"/>
       <c r="AL218" s="5"/>
       <c r="AM218" s="5"/>
@@ -12803,7 +12824,7 @@
       <c r="CC218" s="5"/>
       <c r="CD218" s="5"/>
     </row>
-    <row r="219" spans="3:82">
+    <row r="219" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C219" s="3"/>
       <c r="AL219" s="5"/>
       <c r="AM219" s="5"/>
@@ -12851,7 +12872,7 @@
       <c r="CC219" s="5"/>
       <c r="CD219" s="5"/>
     </row>
-    <row r="220" spans="3:82">
+    <row r="220" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C220" s="3"/>
       <c r="AL220" s="5"/>
       <c r="AM220" s="5"/>
@@ -12899,7 +12920,7 @@
       <c r="CC220" s="5"/>
       <c r="CD220" s="5"/>
     </row>
-    <row r="221" spans="3:82">
+    <row r="221" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C221" s="3"/>
       <c r="AL221" s="5"/>
       <c r="AM221" s="5"/>
@@ -12947,7 +12968,7 @@
       <c r="CC221" s="5"/>
       <c r="CD221" s="5"/>
     </row>
-    <row r="222" spans="3:82">
+    <row r="222" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C222" s="3"/>
       <c r="AL222" s="5"/>
       <c r="AM222" s="5"/>
@@ -12995,7 +13016,7 @@
       <c r="CC222" s="5"/>
       <c r="CD222" s="5"/>
     </row>
-    <row r="223" spans="3:82">
+    <row r="223" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C223" s="3"/>
       <c r="AL223" s="5"/>
       <c r="AM223" s="5"/>
@@ -13043,55 +13064,55 @@
       <c r="CC223" s="5"/>
       <c r="CD223" s="5"/>
     </row>
-    <row r="224" spans="3:82">
+    <row r="224" spans="3:82" x14ac:dyDescent="0.15">
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="3:3">
+    <row r="225" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="3:3">
+    <row r="226" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="3:3">
+    <row r="227" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="3:3">
+    <row r="228" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="3:3">
+    <row r="229" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="3:3">
+    <row r="230" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="3:3">
+    <row r="231" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="3:3">
+    <row r="232" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="3:3">
+    <row r="233" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="3:3">
+    <row r="234" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="3:3">
+    <row r="235" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="3:3">
+    <row r="236" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="3:3">
+    <row r="237" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="3:3">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="3:3">
+    <row r="239" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="3:3">
+    <row r="240" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C240" s="3"/>
     </row>
   </sheetData>
@@ -13116,7 +13137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13130,7 +13151,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
